--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Start</t>
   </si>
@@ -37,10 +37,91 @@
     <t>MM Traveled</t>
   </si>
   <si>
+    <t>(364, 188)</t>
+  </si>
+  <si>
+    <t>(490, 217)</t>
+  </si>
+  <si>
+    <t>129.29423807734048</t>
+  </si>
+  <si>
+    <t>0:00:00.243346</t>
+  </si>
+  <si>
+    <t>[[411, 204, datetime.timedelta(microseconds=82778), 311.19996545500436], [478, 213, datetime.timedelta(microseconds=162611), 104.20524216203853, -1272.9441630207416]]</t>
+  </si>
+  <si>
+    <t>2022-07-11 15:33:54.683356</t>
+  </si>
+  <si>
+    <t>32.40862151807021</t>
+  </si>
+  <si>
+    <t>(325, 167)</t>
+  </si>
+  <si>
+    <t>(324, 169)</t>
+  </si>
+  <si>
+    <t>2.23606797749979</t>
+  </si>
+  <si>
+    <t>0:00:00.082778</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>2022-07-11 15:33:57.238494</t>
+  </si>
+  <si>
+    <t>0.5604880917285657</t>
+  </si>
+  <si>
+    <t>(295, 172)</t>
+  </si>
+  <si>
+    <t>(130, 168)</t>
+  </si>
+  <si>
+    <t>165.04847772699995</t>
+  </si>
+  <si>
+    <t>0:00:00.335078</t>
+  </si>
+  <si>
+    <t>[[243, 169, datetime.timedelta(microseconds=82778), 208.58571715060367], [166, 172, datetime.timedelta(microseconds=166575), 115.95558263760645, -556.0866547380892], [132, 170, datetime.timedelta(microseconds=251349), 33.96512526521605, -326.2016454109243]]</t>
+  </si>
+  <si>
+    <t>2022-07-11 15:33:59.520431</t>
+  </si>
+  <si>
+    <t>41.37070395657039</t>
+  </si>
+  <si>
+    <t>(310, 185)</t>
+  </si>
+  <si>
+    <t>(310, 186)</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0:00:00.080785</t>
+  </si>
+  <si>
+    <t>2022-07-11 15:34:01.250659</t>
+  </si>
+  <si>
+    <t>0.25065789473684214</t>
+  </si>
+  <si>
     <t>Name:</t>
   </si>
   <si>
-    <t>sara</t>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -372,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,6 +489,98 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Start</t>
   </si>
@@ -37,91 +37,10 @@
     <t>MM Traveled</t>
   </si>
   <si>
-    <t>(364, 188)</t>
-  </si>
-  <si>
-    <t>(490, 217)</t>
-  </si>
-  <si>
-    <t>129.29423807734048</t>
-  </si>
-  <si>
-    <t>0:00:00.243346</t>
-  </si>
-  <si>
-    <t>[[411, 204, datetime.timedelta(microseconds=82778), 311.19996545500436], [478, 213, datetime.timedelta(microseconds=162611), 104.20524216203853, -1272.9441630207416]]</t>
-  </si>
-  <si>
-    <t>2022-07-11 15:33:54.683356</t>
-  </si>
-  <si>
-    <t>32.40862151807021</t>
-  </si>
-  <si>
-    <t>(325, 167)</t>
-  </si>
-  <si>
-    <t>(324, 169)</t>
-  </si>
-  <si>
-    <t>2.23606797749979</t>
-  </si>
-  <si>
-    <t>0:00:00.082778</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>2022-07-11 15:33:57.238494</t>
-  </si>
-  <si>
-    <t>0.5604880917285657</t>
-  </si>
-  <si>
-    <t>(295, 172)</t>
-  </si>
-  <si>
-    <t>(130, 168)</t>
-  </si>
-  <si>
-    <t>165.04847772699995</t>
-  </si>
-  <si>
-    <t>0:00:00.335078</t>
-  </si>
-  <si>
-    <t>[[243, 169, datetime.timedelta(microseconds=82778), 208.58571715060367], [166, 172, datetime.timedelta(microseconds=166575), 115.95558263760645, -556.0866547380892], [132, 170, datetime.timedelta(microseconds=251349), 33.96512526521605, -326.2016454109243]]</t>
-  </si>
-  <si>
-    <t>2022-07-11 15:33:59.520431</t>
-  </si>
-  <si>
-    <t>41.37070395657039</t>
-  </si>
-  <si>
-    <t>(310, 185)</t>
-  </si>
-  <si>
-    <t>(310, 186)</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0:00:00.080785</t>
-  </si>
-  <si>
-    <t>2022-07-11 15:34:01.250659</t>
-  </si>
-  <si>
-    <t>0.25065789473684214</t>
-  </si>
-  <si>
     <t>Name:</t>
   </si>
   <si>
-    <t>m</t>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -453,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,98 +408,6 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Start</t>
   </si>
@@ -37,10 +37,136 @@
     <t>MM Traveled</t>
   </si>
   <si>
+    <t>(327, 140)</t>
+  </si>
+  <si>
+    <t>(456, 155)</t>
+  </si>
+  <si>
+    <t>129.86916493148016</t>
+  </si>
+  <si>
+    <t>0:00:00.401500</t>
+  </si>
+  <si>
+    <t>[[356, 145, datetime.timedelta(microseconds=81782), 177.0588625707253], [422, 151, datetime.timedelta(microseconds=162917), 103.32334986645584, -452.59557139076617], [448, 155, datetime.timedelta(microseconds=243749), 27.412201857183742, -311.43162847548956], [456, 156, datetime.timedelta(microseconds=322532), 6.349179207234729, -65.3052182417528]]</t>
+  </si>
+  <si>
+    <t>2022-07-12 11:39:46.390465</t>
+  </si>
+  <si>
+    <t>32.986767892595964</t>
+  </si>
+  <si>
+    <t>(312, 134)</t>
+  </si>
+  <si>
+    <t>(311, 133)</t>
+  </si>
+  <si>
+    <t>1.4142135623730951</t>
+  </si>
+  <si>
+    <t>0:00:00.079332</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>2022-07-12 11:39:48.454715</t>
+  </si>
+  <si>
+    <t>0.3592102448427662</t>
+  </si>
+  <si>
+    <t>(312, 131)</t>
+  </si>
+  <si>
+    <t>(312, 133)</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>0:00:00.082781</t>
+  </si>
+  <si>
+    <t>2022-07-12 11:39:49.209948</t>
+  </si>
+  <si>
+    <t>0.508</t>
+  </si>
+  <si>
+    <t>(311, 134)</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0:00:00.086770</t>
+  </si>
+  <si>
+    <t>2022-07-12 11:39:50.425698</t>
+  </si>
+  <si>
+    <t>0.254</t>
+  </si>
+  <si>
+    <t>(312, 137)</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>0:00:00.243449</t>
+  </si>
+  <si>
+    <t>[[311, 131, datetime.timedelta(microseconds=79767), 56.335561413746916], [311, 135, datetime.timedelta(microseconds=162055), 6.269476412329148, -308.94501867525076]]</t>
+  </si>
+  <si>
+    <t>2022-07-12 11:39:50.787119</t>
+  </si>
+  <si>
+    <t>1.016</t>
+  </si>
+  <si>
+    <t>(312, 132)</t>
+  </si>
+  <si>
+    <t>(313, 133)</t>
+  </si>
+  <si>
+    <t>0:00:00.095895</t>
+  </si>
+  <si>
+    <t>2022-07-12 11:39:51.555655</t>
+  </si>
+  <si>
+    <t>(299, 144)</t>
+  </si>
+  <si>
+    <t>(157, 142)</t>
+  </si>
+  <si>
+    <t>142.01408380861386</t>
+  </si>
+  <si>
+    <t>0:00:00.485975</t>
+  </si>
+  <si>
+    <t>[[259, 155, datetime.timedelta(microseconds=79029), 133.33300439645325], [208, 160, datetime.timedelta(microseconds=157817), 82.47594380151733, -322.2533731786558], [161, 147, datetime.timedelta(microseconds=239598), 51.69594197647893, -128.46518679220364], [154, 142, datetime.timedelta(microseconds=320428), 6.818975301249664, -140.05319970548535], [157, 143, datetime.timedelta(microseconds=401166), 2.0022098724287916, -12.00691341943453]]</t>
+  </si>
+  <si>
+    <t>2022-07-12 11:39:53.138550</t>
+  </si>
+  <si>
+    <t>36.071577287387925</t>
+  </si>
+  <si>
     <t>Name:</t>
   </si>
   <si>
-    <t>s</t>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -372,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,6 +534,167 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Start</t>
   </si>
@@ -37,130 +37,175 @@
     <t>MM Traveled</t>
   </si>
   <si>
-    <t>(327, 140)</t>
-  </si>
-  <si>
-    <t>(456, 155)</t>
-  </si>
-  <si>
-    <t>129.86916493148016</t>
-  </si>
-  <si>
-    <t>0:00:00.401500</t>
-  </si>
-  <si>
-    <t>[[356, 145, datetime.timedelta(microseconds=81782), 177.0588625707253], [422, 151, datetime.timedelta(microseconds=162917), 103.32334986645584, -452.59557139076617], [448, 155, datetime.timedelta(microseconds=243749), 27.412201857183742, -311.43162847548956], [456, 156, datetime.timedelta(microseconds=322532), 6.349179207234729, -65.3052182417528]]</t>
-  </si>
-  <si>
-    <t>2022-07-12 11:39:46.390465</t>
-  </si>
-  <si>
-    <t>32.986767892595964</t>
-  </si>
-  <si>
-    <t>(312, 134)</t>
-  </si>
-  <si>
-    <t>(311, 133)</t>
+    <t>(314, 126)</t>
+  </si>
+  <si>
+    <t>(316, 129)</t>
+  </si>
+  <si>
+    <t>3.6055512754639896</t>
+  </si>
+  <si>
+    <t>0:00:00.202427</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>2022-07-12 14:53:32.918456</t>
+  </si>
+  <si>
+    <t>2.2156694128254517</t>
+  </si>
+  <si>
+    <t>(331, 143)</t>
+  </si>
+  <si>
+    <t>(390, 144)</t>
+  </si>
+  <si>
+    <t>59.008473967727724</t>
+  </si>
+  <si>
+    <t>0:00:01.429046</t>
+  </si>
+  <si>
+    <t>[[327, 141, datetime.timedelta(microseconds=204453), 47.523651564219136], [342, 134, datetime.timedelta(microseconds=431919), 23.550832227843234, -55.50304417350453], [378, 140, datetime.timedelta(microseconds=649382), 34.53704307117837, 16.917947900211484], [392, 150, datetime.timedelta(microseconds=845439), 12.50537915515944, -26.05943647740278], [392, 147, datetime.timedelta(seconds=1, microseconds=52929), 34.83059168124798, 421.7954717846274], [391, 145, datetime.timedelta(seconds=1, microseconds=238470), 5.762149695081819, -121.89559267902112]]</t>
+  </si>
+  <si>
+    <t>2022-07-12 14:53:41.295857</t>
+  </si>
+  <si>
+    <t>36.261659002748814</t>
+  </si>
+  <si>
+    <t>(315, 138)</t>
+  </si>
+  <si>
+    <t>(316, 137)</t>
   </si>
   <si>
     <t>1.4142135623730951</t>
   </si>
   <si>
-    <t>0:00:00.079332</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>2022-07-12 11:39:48.454715</t>
-  </si>
-  <si>
-    <t>0.3592102448427662</t>
-  </si>
-  <si>
-    <t>(312, 131)</t>
-  </si>
-  <si>
-    <t>(312, 133)</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>0:00:00.082781</t>
-  </si>
-  <si>
-    <t>2022-07-12 11:39:49.209948</t>
-  </si>
-  <si>
-    <t>0.508</t>
-  </si>
-  <si>
-    <t>(311, 134)</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0:00:00.086770</t>
-  </si>
-  <si>
-    <t>2022-07-12 11:39:50.425698</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
-    <t>(312, 137)</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>0:00:00.243449</t>
-  </si>
-  <si>
-    <t>[[311, 131, datetime.timedelta(microseconds=79767), 56.335561413746916], [311, 135, datetime.timedelta(microseconds=162055), 6.269476412329148, -308.94501867525076]]</t>
-  </si>
-  <si>
-    <t>2022-07-12 11:39:50.787119</t>
-  </si>
-  <si>
-    <t>1.016</t>
-  </si>
-  <si>
-    <t>(312, 132)</t>
-  </si>
-  <si>
-    <t>(313, 133)</t>
-  </si>
-  <si>
-    <t>0:00:00.095895</t>
-  </si>
-  <si>
-    <t>2022-07-12 11:39:51.555655</t>
-  </si>
-  <si>
-    <t>(299, 144)</t>
-  </si>
-  <si>
-    <t>(157, 142)</t>
-  </si>
-  <si>
-    <t>142.01408380861386</t>
-  </si>
-  <si>
-    <t>0:00:00.485975</t>
-  </si>
-  <si>
-    <t>[[259, 155, datetime.timedelta(microseconds=79029), 133.33300439645325], [208, 160, datetime.timedelta(microseconds=157817), 82.47594380151733, -322.2533731786558], [161, 147, datetime.timedelta(microseconds=239598), 51.69594197647893, -128.46518679220364], [154, 142, datetime.timedelta(microseconds=320428), 6.818975301249664, -140.05319970548535], [157, 143, datetime.timedelta(microseconds=401166), 2.0022098724287916, -12.00691341943453]]</t>
-  </si>
-  <si>
-    <t>2022-07-12 11:39:53.138550</t>
-  </si>
-  <si>
-    <t>36.071577287387925</t>
+    <t>0:00:00.234374</t>
+  </si>
+  <si>
+    <t>2022-07-12 14:53:47.042532</t>
+  </si>
+  <si>
+    <t>0.8690570439744343</t>
+  </si>
+  <si>
+    <t>(312, 128)</t>
+  </si>
+  <si>
+    <t>(314, 133)</t>
+  </si>
+  <si>
+    <t>5.385164807134505</t>
+  </si>
+  <si>
+    <t>0:00:00.222741</t>
+  </si>
+  <si>
+    <t>2022-07-12 14:53:56.245652</t>
+  </si>
+  <si>
+    <t>3.3092706314810427</t>
+  </si>
+  <si>
+    <t>(317, 116)</t>
+  </si>
+  <si>
+    <t>(269, 100)</t>
+  </si>
+  <si>
+    <t>50.59644256269407</t>
+  </si>
+  <si>
+    <t>0:00:02.109195</t>
+  </si>
+  <si>
+    <t>[[316, 85, datetime.timedelta(microseconds=206448), 140.02749292785086], [309, 87, datetime.timedelta(microseconds=420876), 10.629603370327901, -307.4489625389021], [275, 97, datetime.timedelta(microseconds=645305), 33.749168377149104, 35.82734521942524], [268, 103, datetime.timedelta(microseconds=867770), 6.5288714421291765, -31.368100919621476], [265, 101, datetime.timedelta(seconds=1, microseconds=64247), 34.48673732353965, 435.1622002803318], [268, 103, datetime.timedelta(seconds=1, microseconds=267745), 8.275297065586479, -97.8970298528569], [271, 100, datetime.timedelta(seconds=1, microseconds=477178), 5.4637286964682, -5.8920745908618555], [271, 103, datetime.timedelta(seconds=1, microseconds=690606), 2.669464770211632, -4.046104329033586], [269, 99, datetime.timedelta(seconds=1, microseconds=905660), 3.034471739474331, 0.40302869648952055]]</t>
+  </si>
+  <si>
+    <t>2022-07-12 14:54:03.428435</t>
+  </si>
+  <si>
+    <t>31.092330026429746</t>
+  </si>
+  <si>
+    <t>(289, 143)</t>
+  </si>
+  <si>
+    <t>(225, 141)</t>
+  </si>
+  <si>
+    <t>64.03124237432849</t>
+  </si>
+  <si>
+    <t>0:00:01.275191</t>
+  </si>
+  <si>
+    <t>[[261, 141, datetime.timedelta(microseconds=211903), 155.89963640477768], [254, 146, datetime.timedelta(microseconds=430346), 12.283761493726956, -333.72187707344955], [250, 146, datetime.timedelta(microseconds=631394), 3.8930755061483517, -13.289144318093939], [231, 146, datetime.timedelta(microseconds=834862), 13.985313083614901, 12.088509930343637], [225, 140, datetime.timedelta(seconds=1, microseconds=56742), 91.89563751447967, 1373.0627124680973]]</t>
+  </si>
+  <si>
+    <t>2022-07-12 14:54:21.839108</t>
+  </si>
+  <si>
+    <t>39.34823120099863</t>
+  </si>
+  <si>
+    <t>(314, 132)</t>
+  </si>
+  <si>
+    <t>(314, 137)</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>0:00:00.205961</t>
+  </si>
+  <si>
+    <t>2022-07-12 14:54:26.542371</t>
+  </si>
+  <si>
+    <t>3.0725806451612905</t>
+  </si>
+  <si>
+    <t>(316, 128)</t>
+  </si>
+  <si>
+    <t>(316, 135)</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>0:00:00.203456</t>
+  </si>
+  <si>
+    <t>2022-07-12 14:54:28.700378</t>
+  </si>
+  <si>
+    <t>4.301612903225807</t>
+  </si>
+  <si>
+    <t>(315, 134)</t>
+  </si>
+  <si>
+    <t>2.23606797749979</t>
+  </si>
+  <si>
+    <t>0:00:00.205910</t>
+  </si>
+  <si>
+    <t>2022-07-12 14:54:31.667419</t>
+  </si>
+  <si>
+    <t>1.3740998377861613</t>
   </si>
   <si>
     <t>Name:</t>
@@ -498,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -587,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -601,99 +646,145 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Start</t>
   </si>
@@ -37,52 +37,121 @@
     <t>MM Traveled</t>
   </si>
   <si>
-    <t>(477, -14)</t>
-  </si>
-  <si>
-    <t>(488, 79)</t>
-  </si>
-  <si>
-    <t>93.64827814754524</t>
-  </si>
-  <si>
-    <t>0:00:00.138886</t>
+    <t>(348, 193)</t>
+  </si>
+  <si>
+    <t>(347, 193)</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0:00:00.098793</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>2022-07-13 14:24:35.720342</t>
-  </si>
-  <si>
-    <t>35.67999397421474</t>
-  </si>
-  <si>
-    <t>(237, 58)</t>
-  </si>
-  <si>
-    <t>(227, 57)</t>
-  </si>
-  <si>
-    <t>10.04987562112089</t>
-  </si>
-  <si>
-    <t>0:00:00.293000</t>
-  </si>
-  <si>
-    <t>[[229, 58, datetime.timedelta(microseconds=139038), 21.922064471583308]]</t>
-  </si>
-  <si>
-    <t>2022-07-13 14:24:36.446851</t>
-  </si>
-  <si>
-    <t>3.829002611647059</t>
+    <t>2022-07-14 14:40:03.781778</t>
+  </si>
+  <si>
+    <t>0.4280898876404494</t>
+  </si>
+  <si>
+    <t>(338, 188)</t>
+  </si>
+  <si>
+    <t>(337, 188)</t>
+  </si>
+  <si>
+    <t>0:00:00.102526</t>
+  </si>
+  <si>
+    <t>2022-07-14 14:40:06.323328</t>
+  </si>
+  <si>
+    <t>(339, 184)</t>
+  </si>
+  <si>
+    <t>(339, 185)</t>
+  </si>
+  <si>
+    <t>0:00:00.104769</t>
+  </si>
+  <si>
+    <t>2022-07-14 14:40:11.729370</t>
+  </si>
+  <si>
+    <t>(314, 195)</t>
+  </si>
+  <si>
+    <t>(149, 184)</t>
+  </si>
+  <si>
+    <t>165.366260162102</t>
+  </si>
+  <si>
+    <t>0:00:00.794133</t>
+  </si>
+  <si>
+    <t>[[266, 190, datetime.timedelta(microseconds=104721), 298.66922363096995], [232, 187, datetime.timedelta(microseconds=210437), 69.43458271878387, -1089.3266911816177], [211, 182, datetime.timedelta(microseconds=317708), 29.087056647930496, -126.99562513645668], [198, 184, datetime.timedelta(microseconds=421130), 13.3703211900593, -37.32038909094862], [194, 184, datetime.timedelta(microseconds=526849), 3.250190378195266, -19.208788119298003], [147, 184, datetime.timedelta(microseconds=657538), 30.59933375576944, 41.593251458583644]]</t>
+  </si>
+  <si>
+    <t>2022-07-14 14:40:14.750290</t>
+  </si>
+  <si>
+    <t>70.79162373231559</t>
+  </si>
+  <si>
+    <t>(373, 202)</t>
+  </si>
+  <si>
+    <t>(504, 190)</t>
+  </si>
+  <si>
+    <t>131.54847015454035</t>
+  </si>
+  <si>
+    <t>0:00:00.737807</t>
+  </si>
+  <si>
+    <t>[[399, 205, datetime.timedelta(microseconds=100758), 259.9700697493473], [441, 202, datetime.timedelta(microseconds=202494), 89.01786571358309, -844.23342931526], [470, 197, datetime.timedelta(microseconds=318151), 39.596848541908074, -155.3382424436039], [495, 192, datetime.timedelta(microseconds=421873), 25.87080342485054, -32.535964892414384], [502, 194, datetime.timedelta(microseconds=526346), 5.921088836074032, -37.90228212768124], [505, 189, datetime.timedelta(microseconds=633063), 3.943006527788215, -3.124621575239459]]</t>
+  </si>
+  <si>
+    <t>2022-07-14 14:40:18.671317</t>
+  </si>
+  <si>
+    <t>56.314569807730194</t>
+  </si>
+  <si>
+    <t>(338, 196)</t>
+  </si>
+  <si>
+    <t>(338, 195)</t>
+  </si>
+  <si>
+    <t>0:00:00.099692</t>
+  </si>
+  <si>
+    <t>2022-07-14 14:40:21.653231</t>
+  </si>
+  <si>
+    <t>(339, 193)</t>
+  </si>
+  <si>
+    <t>(340, 193)</t>
+  </si>
+  <si>
+    <t>0:00:00.101679</t>
+  </si>
+  <si>
+    <t>2022-07-14 14:40:25.482491</t>
   </si>
   <si>
     <t>Subject Code:</t>
   </si>
   <si>
-    <t>224</t>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -414,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,27 +543,142 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Start</t>
   </si>
@@ -37,121 +37,94 @@
     <t>MM Traveled</t>
   </si>
   <si>
-    <t>(348, 193)</t>
-  </si>
-  <si>
-    <t>(347, 193)</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0:00:00.098793</t>
+    <t>(364, 189)</t>
+  </si>
+  <si>
+    <t>(420, 186)</t>
+  </si>
+  <si>
+    <t>56.080299571239806</t>
+  </si>
+  <si>
+    <t>0:00:00.416525</t>
+  </si>
+  <si>
+    <t>[[380, 185, datetime.timedelta(microseconds=100726), 50.60866481036415], [406, 184, datetime.timedelta(microseconds=204481), 53.8671303632033, 15.935297425380133], [419, 188, datetime.timedelta(microseconds=308811), 18.645565892076398, -114.0554075830424]]</t>
+  </si>
+  <si>
+    <t>2022-07-14 15:13:19.237900</t>
+  </si>
+  <si>
+    <t>23.74066015182485</t>
+  </si>
+  <si>
+    <t>(348, 197)</t>
+  </si>
+  <si>
+    <t>(347, 195)</t>
+  </si>
+  <si>
+    <t>2.23606797749979</t>
+  </si>
+  <si>
+    <t>0:00:00.099874</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>2022-07-14 14:40:03.781778</t>
-  </si>
-  <si>
-    <t>0.4280898876404494</t>
-  </si>
-  <si>
-    <t>(338, 188)</t>
-  </si>
-  <si>
-    <t>(337, 188)</t>
-  </si>
-  <si>
-    <t>0:00:00.102526</t>
-  </si>
-  <si>
-    <t>2022-07-14 14:40:06.323328</t>
-  </si>
-  <si>
-    <t>(339, 184)</t>
-  </si>
-  <si>
-    <t>(339, 185)</t>
-  </si>
-  <si>
-    <t>0:00:00.104769</t>
-  </si>
-  <si>
-    <t>2022-07-14 14:40:11.729370</t>
-  </si>
-  <si>
-    <t>(314, 195)</t>
-  </si>
-  <si>
-    <t>(149, 184)</t>
-  </si>
-  <si>
-    <t>165.366260162102</t>
-  </si>
-  <si>
-    <t>0:00:00.794133</t>
-  </si>
-  <si>
-    <t>[[266, 190, datetime.timedelta(microseconds=104721), 298.66922363096995], [232, 187, datetime.timedelta(microseconds=210437), 69.43458271878387, -1089.3266911816177], [211, 182, datetime.timedelta(microseconds=317708), 29.087056647930496, -126.99562513645668], [198, 184, datetime.timedelta(microseconds=421130), 13.3703211900593, -37.32038909094862], [194, 184, datetime.timedelta(microseconds=526849), 3.250190378195266, -19.208788119298003], [147, 184, datetime.timedelta(microseconds=657538), 30.59933375576944, 41.593251458583644]]</t>
-  </si>
-  <si>
-    <t>2022-07-14 14:40:14.750290</t>
-  </si>
-  <si>
-    <t>70.79162373231559</t>
-  </si>
-  <si>
-    <t>(373, 202)</t>
-  </si>
-  <si>
-    <t>(504, 190)</t>
-  </si>
-  <si>
-    <t>131.54847015454035</t>
-  </si>
-  <si>
-    <t>0:00:00.737807</t>
-  </si>
-  <si>
-    <t>[[399, 205, datetime.timedelta(microseconds=100758), 259.9700697493473], [441, 202, datetime.timedelta(microseconds=202494), 89.01786571358309, -844.23342931526], [470, 197, datetime.timedelta(microseconds=318151), 39.596848541908074, -155.3382424436039], [495, 192, datetime.timedelta(microseconds=421873), 25.87080342485054, -32.535964892414384], [502, 194, datetime.timedelta(microseconds=526346), 5.921088836074032, -37.90228212768124], [505, 189, datetime.timedelta(microseconds=633063), 3.943006527788215, -3.124621575239459]]</t>
-  </si>
-  <si>
-    <t>2022-07-14 14:40:18.671317</t>
-  </si>
-  <si>
-    <t>56.314569807730194</t>
-  </si>
-  <si>
-    <t>(338, 196)</t>
-  </si>
-  <si>
-    <t>(338, 195)</t>
-  </si>
-  <si>
-    <t>0:00:00.099692</t>
-  </si>
-  <si>
-    <t>2022-07-14 14:40:21.653231</t>
-  </si>
-  <si>
-    <t>(339, 193)</t>
-  </si>
-  <si>
-    <t>(340, 193)</t>
-  </si>
-  <si>
-    <t>0:00:00.101679</t>
-  </si>
-  <si>
-    <t>2022-07-14 14:40:25.482491</t>
+    <t>2022-07-14 15:13:22.817329</t>
+  </si>
+  <si>
+    <t>0.946602110474911</t>
+  </si>
+  <si>
+    <t>(352, 194)</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0:00:00.099770</t>
+  </si>
+  <si>
+    <t>2022-07-14 15:13:24.877388</t>
+  </si>
+  <si>
+    <t>(345, 194)</t>
+  </si>
+  <si>
+    <t>0:00:00.099734</t>
+  </si>
+  <si>
+    <t>2022-07-14 15:13:25.801916</t>
+  </si>
+  <si>
+    <t>(372, 194)</t>
+  </si>
+  <si>
+    <t>(454, 198)</t>
+  </si>
+  <si>
+    <t>82.09750300709516</t>
+  </si>
+  <si>
+    <t>0:00:00.802404</t>
+  </si>
+  <si>
+    <t>[[390, 195, datetime.timedelta(microseconds=99732), 76.52258251847061], [411, 190, datetime.timedelta(microseconds=207604), 44.01895290079846, -156.56552676091096], [422, 192, datetime.timedelta(microseconds=328282), 14.417514674501055, -90.17076241249111], [435, 194, datetime.timedelta(microseconds=441286), 12.617850234856533, -4.078226908727043], [450, 196, datetime.timedelta(microseconds=555978), 11.52239078826583, -1.9703287658697], [455, 197, datetime.timedelta(microseconds=674662), 3.199505719042937, -12.33637742932445]]</t>
+  </si>
+  <si>
+    <t>2022-07-14 15:13:30.229620</t>
+  </si>
+  <si>
+    <t>34.75460960633695</t>
   </si>
   <si>
     <t>Subject Code:</t>
   </si>
   <si>
-    <t>m</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -483,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,142 +516,96 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
   <si>
     <t>Start</t>
   </si>
@@ -37,94 +37,298 @@
     <t>MM Traveled</t>
   </si>
   <si>
-    <t>(364, 189)</t>
-  </si>
-  <si>
-    <t>(420, 186)</t>
-  </si>
-  <si>
-    <t>56.080299571239806</t>
-  </si>
-  <si>
-    <t>0:00:00.416525</t>
-  </si>
-  <si>
-    <t>[[380, 185, datetime.timedelta(microseconds=100726), 50.60866481036415], [406, 184, datetime.timedelta(microseconds=204481), 53.8671303632033, 15.935297425380133], [419, 188, datetime.timedelta(microseconds=308811), 18.645565892076398, -114.0554075830424]]</t>
-  </si>
-  <si>
-    <t>2022-07-14 15:13:19.237900</t>
-  </si>
-  <si>
-    <t>23.74066015182485</t>
-  </si>
-  <si>
-    <t>(348, 197)</t>
-  </si>
-  <si>
-    <t>(347, 195)</t>
-  </si>
-  <si>
-    <t>2.23606797749979</t>
-  </si>
-  <si>
-    <t>0:00:00.099874</t>
+    <t>Target Hit</t>
+  </si>
+  <si>
+    <t>Target Center</t>
+  </si>
+  <si>
+    <t>Distance From Center</t>
+  </si>
+  <si>
+    <t>(367, 185)</t>
+  </si>
+  <si>
+    <t>(466, 194)</t>
+  </si>
+  <si>
+    <t>99.40824915468535</t>
+  </si>
+  <si>
+    <t>0:00:00.386083</t>
+  </si>
+  <si>
+    <t>[[403, 188, datetime.timedelta(microseconds=70846), 380.29985657714883], [434, 191, datetime.timedelta(microseconds=145646), 98.15991840280543, -1937.16228509086], [463, 195, datetime.timedelta(microseconds=239427), 56.12601013759703, -175.56043497687563], [467, 195, datetime.timedelta(microseconds=312232), 5.880705944020002, -160.9229809679246]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 11:37:52.998791</t>
+  </si>
+  <si>
+    <t>45.63197943124713</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>(1460.5, 540.0)</t>
+  </si>
+  <si>
+    <t>1052.9702037569725</t>
+  </si>
+  <si>
+    <t>(319, 183)</t>
+  </si>
+  <si>
+    <t>(320, 183)</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0:00:00.079446</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>2022-07-14 15:13:22.817329</t>
-  </si>
-  <si>
-    <t>0.946602110474911</t>
-  </si>
-  <si>
-    <t>(352, 194)</t>
+    <t>2022-07-15 11:37:54.983948</t>
+  </si>
+  <si>
+    <t>0.45903614457831327</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>(458.5, 540.0)</t>
+  </si>
+  <si>
+    <t>382.92460093339525</t>
+  </si>
+  <si>
+    <t>(305, 183)</t>
+  </si>
+  <si>
+    <t>(149, 198)</t>
+  </si>
+  <si>
+    <t>156.7194946393077</t>
+  </si>
+  <si>
+    <t>0:00:00.472846</t>
+  </si>
+  <si>
+    <t>[[276, 187, datetime.timedelta(microseconds=74800), 426.2790058614439], [218, 193, datetime.timedelta(microseconds=165257), 161.96697731602276, -1599.3998955894226], [186, 195, datetime.timedelta(microseconds=241022), 61.064211660294504, -418.64545832217914], [164, 195, datetime.timedelta(microseconds=318651), 31.692337951937677, -92.1756834541766], [151, 197, datetime.timedelta(microseconds=394795), 15.293197286513069, -41.53836969927332]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 11:37:56.272099</t>
+  </si>
+  <si>
+    <t>71.93991259948945</t>
+  </si>
+  <si>
+    <t>461.2529132699326</t>
+  </si>
+  <si>
+    <t>(319, 180)</t>
+  </si>
+  <si>
+    <t>(318, 181)</t>
+  </si>
+  <si>
+    <t>1.4142135623730951</t>
+  </si>
+  <si>
+    <t>0:00:00.073443</t>
+  </si>
+  <si>
+    <t>2022-07-15 11:37:58.662731</t>
+  </si>
+  <si>
+    <t>0.6491751412821076</t>
+  </si>
+  <si>
+    <t>385.51426692147203</t>
+  </si>
+  <si>
+    <t>(313, 180)</t>
+  </si>
+  <si>
+    <t>(174, 192)</t>
+  </si>
+  <si>
+    <t>139.51702405083043</t>
+  </si>
+  <si>
+    <t>0:00:00.463822</t>
+  </si>
+  <si>
+    <t>[[285, 185, datetime.timedelta(microseconds=76799), 360.41533029942434], [248, 187, datetime.timedelta(microseconds=153599), 110.73725750599425, -1625.518869220699], [215, 189, datetime.timedelta(microseconds=229467), 66.13581754055511, -194.36973493111927], [185, 191, datetime.timedelta(microseconds=305537), 45.171788751158914, -68.61371548910998], [176, 193, datetime.timedelta(microseconds=383353), 11.039705291060942, -89.03564980604814]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 11:37:59.897075</t>
+  </si>
+  <si>
+    <t>64.04335682333301</t>
+  </si>
+  <si>
+    <t>449.49332586813784</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0:00:00.099770</t>
-  </si>
-  <si>
-    <t>2022-07-14 15:13:24.877388</t>
-  </si>
-  <si>
-    <t>(345, 194)</t>
-  </si>
-  <si>
-    <t>0:00:00.099734</t>
-  </si>
-  <si>
-    <t>2022-07-14 15:13:25.801916</t>
-  </si>
-  <si>
-    <t>(372, 194)</t>
-  </si>
-  <si>
-    <t>(454, 198)</t>
-  </si>
-  <si>
-    <t>82.09750300709516</t>
-  </si>
-  <si>
-    <t>0:00:00.802404</t>
-  </si>
-  <si>
-    <t>[[390, 195, datetime.timedelta(microseconds=99732), 76.52258251847061], [411, 190, datetime.timedelta(microseconds=207604), 44.01895290079846, -156.56552676091096], [422, 192, datetime.timedelta(microseconds=328282), 14.417514674501055, -90.17076241249111], [435, 194, datetime.timedelta(microseconds=441286), 12.617850234856533, -4.078226908727043], [450, 196, datetime.timedelta(microseconds=555978), 11.52239078826583, -1.9703287658697], [455, 197, datetime.timedelta(microseconds=674662), 3.199505719042937, -12.33637742932445]]</t>
-  </si>
-  <si>
-    <t>2022-07-14 15:13:30.229620</t>
-  </si>
-  <si>
-    <t>34.75460960633695</t>
+    <t>0:00:00.076295</t>
+  </si>
+  <si>
+    <t>2022-07-15 11:38:02.050585</t>
+  </si>
+  <si>
+    <t>1202.6455213403492</t>
+  </si>
+  <si>
+    <t>(308, 180)</t>
+  </si>
+  <si>
+    <t>(150, 193)</t>
+  </si>
+  <si>
+    <t>158.5339080449353</t>
+  </si>
+  <si>
+    <t>0:00:00.484518</t>
+  </si>
+  <si>
+    <t>[[266, 185, datetime.timedelta(microseconds=83380), 436.1752883372185], [227, 188, datetime.timedelta(microseconds=157198), 114.22090120013831, -2048.081954840902], [192, 190, datetime.timedelta(microseconds=232980), 69.07234234353886, -193.78727297020967], [159, 193, datetime.timedelta(microseconds=323911), 46.959380232272785, -68.26863586375912], [150, 194, datetime.timedelta(microseconds=401996), 10.340274732789274, -91.09320863760712]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 11:38:03.316366</t>
+  </si>
+  <si>
+    <t>72.77279393387994</t>
+  </si>
+  <si>
+    <t>464.3072797189379</t>
+  </si>
+  <si>
+    <t>(313, 182)</t>
+  </si>
+  <si>
+    <t>(314, 182)</t>
+  </si>
+  <si>
+    <t>0:00:00.076830</t>
+  </si>
+  <si>
+    <t>2022-07-15 11:38:05.536349</t>
+  </si>
+  <si>
+    <t>1201.0937723591776</t>
+  </si>
+  <si>
+    <t>(293, 184)</t>
+  </si>
+  <si>
+    <t>(146, 194)</t>
+  </si>
+  <si>
+    <t>147.33974345029927</t>
+  </si>
+  <si>
+    <t>0:00:00.397434</t>
+  </si>
+  <si>
+    <t>[[259, 188, datetime.timedelta(microseconds=81780), 485.3594249689224], [204, 190, datetime.timedelta(microseconds=158427), 159.46571393008367, -2057.0591568283107], [171, 193, datetime.timedelta(microseconds=236095), 64.42601414860844, -402.5485494460926], [148, 194, datetime.timedelta(microseconds=315946), 33.448138797070094, -98.04800615148902]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 11:38:06.882281</t>
+  </si>
+  <si>
+    <t>67.63426777658316</t>
+  </si>
+  <si>
+    <t>466.2319701607774</t>
+  </si>
+  <si>
+    <t>(317, 181)</t>
+  </si>
+  <si>
+    <t>0:00:00.079951</t>
+  </si>
+  <si>
+    <t>2022-07-15 11:38:08.920807</t>
+  </si>
+  <si>
+    <t>1198.529619992764</t>
+  </si>
+  <si>
+    <t>(333, 182)</t>
+  </si>
+  <si>
+    <t>(474, 193)</t>
+  </si>
+  <si>
+    <t>141.42842712835352</t>
+  </si>
+  <si>
+    <t>0:00:00.464583</t>
+  </si>
+  <si>
+    <t>[[360, 183, datetime.timedelta(microseconds=74818), 95.24656232900384], [395, 183, datetime.timedelta(microseconds=149613), 107.3854882947402, 81.13550270187993], [447, 189, datetime.timedelta(microseconds=238361), 100.80613549637583, -27.602471874024562], [469, 192, datetime.timedelta(microseconds=310170), 32.860226519998136, -219.0602217376848], [474, 194, datetime.timedelta(microseconds=381521), 6.479290238245965, -69.14674757549956]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 11:38:10.198782</t>
+  </si>
+  <si>
+    <t>64.92075992277434</t>
+  </si>
+  <si>
+    <t>1045.7491333967241</t>
+  </si>
+  <si>
+    <t>(310, 179)</t>
+  </si>
+  <si>
+    <t>(309, 180)</t>
+  </si>
+  <si>
+    <t>0:00:00.076798</t>
+  </si>
+  <si>
+    <t>2022-07-15 11:38:12.159897</t>
+  </si>
+  <si>
+    <t>389.8079655420089</t>
+  </si>
+  <si>
+    <t>(345, 179)</t>
+  </si>
+  <si>
+    <t>(472, 189)</t>
+  </si>
+  <si>
+    <t>127.39309243440165</t>
+  </si>
+  <si>
+    <t>0:00:00.457903</t>
+  </si>
+  <si>
+    <t>[[391, 182, datetime.timedelta(microseconds=80031), 264.4040523324765], [420, 184, datetime.timedelta(microseconds=158750), 84.05460349155837, -1136.059520257752], [446, 187, datetime.timedelta(microseconds=234380), 51.25917583209242, -139.92417296469816], [466, 189, datetime.timedelta(microseconds=309221), 29.837922771163118, -69.2748974388198], [471, 190, datetime.timedelta(microseconds=383980), 6.095719200607372, -61.831875541840056]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 11:38:13.511245</t>
+  </si>
+  <si>
+    <t>58.47803399699642</t>
+  </si>
+  <si>
+    <t>1048.9677068432563</t>
   </si>
   <si>
     <t>Subject Code:</t>
   </si>
   <si>
-    <t>1</t>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -456,13 +660,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,128 +688,438 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="I13" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+      <c r="J13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="149">
   <si>
     <t>Start</t>
   </si>
@@ -46,25 +46,25 @@
     <t>Distance From Center</t>
   </si>
   <si>
-    <t>(367, 185)</t>
-  </si>
-  <si>
-    <t>(466, 194)</t>
-  </si>
-  <si>
-    <t>99.40824915468535</t>
-  </si>
-  <si>
-    <t>0:00:00.386083</t>
-  </si>
-  <si>
-    <t>[[403, 188, datetime.timedelta(microseconds=70846), 380.29985657714883], [434, 191, datetime.timedelta(microseconds=145646), 98.15991840280543, -1937.16228509086], [463, 195, datetime.timedelta(microseconds=239427), 56.12601013759703, -175.56043497687563], [467, 195, datetime.timedelta(microseconds=312232), 5.880705944020002, -160.9229809679246]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 11:37:52.998791</t>
-  </si>
-  <si>
-    <t>45.63197943124713</t>
+    <t>(1036, 531)</t>
+  </si>
+  <si>
+    <t>(1490, 578)</t>
+  </si>
+  <si>
+    <t>456.42633578705784</t>
+  </si>
+  <si>
+    <t>0:00:00.438840</t>
+  </si>
+  <si>
+    <t>[[1150, 535, datetime.timedelta(microseconds=71332), 778.3552775632666], [1277, 547, datetime.timedelta(microseconds=145166), 413.3413550332914, -2514.4587749884627], [1388, 565, datetime.timedelta(microseconds=217939), 242.69700659123242, -782.9913344654191], [1468, 575, datetime.timedelta(microseconds=290770), 130.42085370184606, -386.1338958262076], [1487, 578, datetime.timedelta(microseconds=365765), 24.73652406683163, -288.94052092194283]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:19.719305</t>
+  </si>
+  <si>
+    <t>214.68942461094946</t>
   </si>
   <si>
     <t>hit</t>
@@ -73,256 +73,388 @@
     <t>(1460.5, 540.0)</t>
   </si>
   <si>
-    <t>1052.9702037569725</t>
-  </si>
-  <si>
-    <t>(319, 183)</t>
-  </si>
-  <si>
-    <t>(320, 183)</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0:00:00.079446</t>
+    <t>48.106652346634974</t>
+  </si>
+  <si>
+    <t>(961, 544)</t>
+  </si>
+  <si>
+    <t>(961, 541)</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>0:00:00.070809</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>2022-07-15 11:37:54.983948</t>
-  </si>
-  <si>
-    <t>0.45903614457831327</t>
+    <t>2022-07-15 14:10:22.065419</t>
+  </si>
+  <si>
+    <t>1.4111111111111112</t>
   </si>
   <si>
     <t>miss</t>
   </si>
   <si>
+    <t>499.50100099999804</t>
+  </si>
+  <si>
+    <t>(964, 538)</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0:00:00.072815</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:22.763563</t>
+  </si>
+  <si>
     <t>(458.5, 540.0)</t>
   </si>
   <si>
-    <t>382.92460093339525</t>
-  </si>
-  <si>
-    <t>(305, 183)</t>
-  </si>
-  <si>
-    <t>(149, 198)</t>
-  </si>
-  <si>
-    <t>156.7194946393077</t>
-  </si>
-  <si>
-    <t>0:00:00.472846</t>
-  </si>
-  <si>
-    <t>[[276, 187, datetime.timedelta(microseconds=74800), 426.2790058614439], [218, 193, datetime.timedelta(microseconds=165257), 161.96697731602276, -1599.3998955894226], [186, 195, datetime.timedelta(microseconds=241022), 61.064211660294504, -418.64545832217914], [164, 195, datetime.timedelta(microseconds=318651), 31.692337951937677, -92.1756834541766], [151, 197, datetime.timedelta(microseconds=394795), 15.293197286513069, -41.53836969927332]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 11:37:56.272099</t>
-  </si>
-  <si>
-    <t>71.93991259948945</t>
-  </si>
-  <si>
-    <t>461.2529132699326</t>
-  </si>
-  <si>
-    <t>(319, 180)</t>
-  </si>
-  <si>
-    <t>(318, 181)</t>
-  </si>
-  <si>
-    <t>1.4142135623730951</t>
-  </si>
-  <si>
-    <t>0:00:00.073443</t>
-  </si>
-  <si>
-    <t>2022-07-15 11:37:58.662731</t>
-  </si>
-  <si>
-    <t>0.6491751412821076</t>
-  </si>
-  <si>
-    <t>385.51426692147203</t>
-  </si>
-  <si>
-    <t>(313, 180)</t>
-  </si>
-  <si>
-    <t>(174, 192)</t>
-  </si>
-  <si>
-    <t>139.51702405083043</t>
-  </si>
-  <si>
-    <t>0:00:00.463822</t>
-  </si>
-  <si>
-    <t>[[285, 185, datetime.timedelta(microseconds=76799), 360.41533029942434], [248, 187, datetime.timedelta(microseconds=153599), 110.73725750599425, -1625.518869220699], [215, 189, datetime.timedelta(microseconds=229467), 66.13581754055511, -194.36973493111927], [185, 191, datetime.timedelta(microseconds=305537), 45.171788751158914, -68.61371548910998], [176, 193, datetime.timedelta(microseconds=383353), 11.039705291060942, -89.03564980604814]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 11:37:59.897075</t>
-  </si>
-  <si>
-    <t>64.04335682333301</t>
-  </si>
-  <si>
-    <t>449.49332586813784</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0:00:00.076295</t>
-  </si>
-  <si>
-    <t>2022-07-15 11:38:02.050585</t>
-  </si>
-  <si>
-    <t>1202.6455213403492</t>
-  </si>
-  <si>
-    <t>(308, 180)</t>
-  </si>
-  <si>
-    <t>(150, 193)</t>
-  </si>
-  <si>
-    <t>158.5339080449353</t>
-  </si>
-  <si>
-    <t>0:00:00.484518</t>
-  </si>
-  <si>
-    <t>[[266, 185, datetime.timedelta(microseconds=83380), 436.1752883372185], [227, 188, datetime.timedelta(microseconds=157198), 114.22090120013831, -2048.081954840902], [192, 190, datetime.timedelta(microseconds=232980), 69.07234234353886, -193.78727297020967], [159, 193, datetime.timedelta(microseconds=323911), 46.959380232272785, -68.26863586375912], [150, 194, datetime.timedelta(microseconds=401996), 10.340274732789274, -91.09320863760712]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 11:38:03.316366</t>
-  </si>
-  <si>
-    <t>72.77279393387994</t>
-  </si>
-  <si>
-    <t>464.3072797189379</t>
-  </si>
-  <si>
-    <t>(313, 182)</t>
-  </si>
-  <si>
-    <t>(314, 182)</t>
-  </si>
-  <si>
-    <t>0:00:00.076830</t>
-  </si>
-  <si>
-    <t>2022-07-15 11:38:05.536349</t>
-  </si>
-  <si>
-    <t>1201.0937723591776</t>
-  </si>
-  <si>
-    <t>(293, 184)</t>
-  </si>
-  <si>
-    <t>(146, 194)</t>
-  </si>
-  <si>
-    <t>147.33974345029927</t>
-  </si>
-  <si>
-    <t>0:00:00.397434</t>
-  </si>
-  <si>
-    <t>[[259, 188, datetime.timedelta(microseconds=81780), 485.3594249689224], [204, 190, datetime.timedelta(microseconds=158427), 159.46571393008367, -2057.0591568283107], [171, 193, datetime.timedelta(microseconds=236095), 64.42601414860844, -402.5485494460926], [148, 194, datetime.timedelta(microseconds=315946), 33.448138797070094, -98.04800615148902]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 11:38:06.882281</t>
-  </si>
-  <si>
-    <t>67.63426777658316</t>
-  </si>
-  <si>
-    <t>466.2319701607774</t>
-  </si>
-  <si>
-    <t>(317, 181)</t>
-  </si>
-  <si>
-    <t>0:00:00.079951</t>
-  </si>
-  <si>
-    <t>2022-07-15 11:38:08.920807</t>
-  </si>
-  <si>
-    <t>1198.529619992764</t>
-  </si>
-  <si>
-    <t>(333, 182)</t>
-  </si>
-  <si>
-    <t>(474, 193)</t>
-  </si>
-  <si>
-    <t>141.42842712835352</t>
-  </si>
-  <si>
-    <t>0:00:00.464583</t>
-  </si>
-  <si>
-    <t>[[360, 183, datetime.timedelta(microseconds=74818), 95.24656232900384], [395, 183, datetime.timedelta(microseconds=149613), 107.3854882947402, 81.13550270187993], [447, 189, datetime.timedelta(microseconds=238361), 100.80613549637583, -27.602471874024562], [469, 192, datetime.timedelta(microseconds=310170), 32.860226519998136, -219.0602217376848], [474, 194, datetime.timedelta(microseconds=381521), 6.479290238245965, -69.14674757549956]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 11:38:10.198782</t>
-  </si>
-  <si>
-    <t>64.92075992277434</t>
-  </si>
-  <si>
-    <t>1045.7491333967241</t>
-  </si>
-  <si>
-    <t>(310, 179)</t>
-  </si>
-  <si>
-    <t>(309, 180)</t>
-  </si>
-  <si>
-    <t>0:00:00.076798</t>
-  </si>
-  <si>
-    <t>2022-07-15 11:38:12.159897</t>
-  </si>
-  <si>
-    <t>389.8079655420089</t>
-  </si>
-  <si>
-    <t>(345, 179)</t>
-  </si>
-  <si>
-    <t>(472, 189)</t>
-  </si>
-  <si>
-    <t>127.39309243440165</t>
-  </si>
-  <si>
-    <t>0:00:00.457903</t>
-  </si>
-  <si>
-    <t>[[391, 182, datetime.timedelta(microseconds=80031), 264.4040523324765], [420, 184, datetime.timedelta(microseconds=158750), 84.05460349155837, -1136.059520257752], [446, 187, datetime.timedelta(microseconds=234380), 51.25917583209242, -139.92417296469816], [466, 189, datetime.timedelta(microseconds=309221), 29.837922771163118, -69.2748974388198], [471, 190, datetime.timedelta(microseconds=383980), 6.095719200607372, -61.831875541840056]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 11:38:13.511245</t>
-  </si>
-  <si>
-    <t>58.47803399699642</t>
-  </si>
-  <si>
-    <t>1048.9677068432563</t>
+    <t>505.50395646325063</t>
+  </si>
+  <si>
+    <t>(958, 541)</t>
+  </si>
+  <si>
+    <t>(442, 553)</t>
+  </si>
+  <si>
+    <t>516.1395160225577</t>
+  </si>
+  <si>
+    <t>0:00:00.514009</t>
+  </si>
+  <si>
+    <t>[[906, 538, datetime.timedelta(microseconds=68907), 860.096458511714], [807, 544, datetime.timedelta(microseconds=143656), 324.74877598981834, -3726.5946603128], [671, 550, datetime.timedelta(microseconds=214469), 298.5634054761174, -122.09396469280384], [556, 556, datetime.timedelta(microseconds=287789), 188.21485792138841, -383.43559884057066], [463, 556, datetime.timedelta(microseconds=365568), 119.66157990974169, -187.5253797149825], [442, 556, datetime.timedelta(microseconds=440593), 22.41927987457309, -220.70777346705145]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:24.119300</t>
+  </si>
+  <si>
+    <t>242.7767353143142</t>
+  </si>
+  <si>
+    <t>21.005951537600005</t>
+  </si>
+  <si>
+    <t>(943, 538)</t>
+  </si>
+  <si>
+    <t>0:00:00.073167</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:26.465968</t>
+  </si>
+  <si>
+    <t>517.5038647198685</t>
+  </si>
+  <si>
+    <t>(909, 538)</t>
+  </si>
+  <si>
+    <t>(507, 547)</t>
+  </si>
+  <si>
+    <t>402.1007336476769</t>
+  </si>
+  <si>
+    <t>0:00:00.441614</t>
+  </si>
+  <si>
+    <t>[[838, 535, datetime.timedelta(microseconds=74085), 1231.865584836029], [683, 538, datetime.timedelta(microseconds=151099), 482.604531087007, -4958.742637271075], [593, 544, datetime.timedelta(microseconds=223199), 190.08733512379933, -1310.5667855286433], [535, 544, datetime.timedelta(microseconds=295042), 92.4664335297398, -330.8712034017514], [510, 544, datetime.timedelta(microseconds=366855), 32.05424284597255, -164.675936497437]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:27.999905</t>
+  </si>
+  <si>
+    <t>189.13627101205546</t>
+  </si>
+  <si>
+    <t>49.00255095400647</t>
+  </si>
+  <si>
+    <t>(967, 538)</t>
+  </si>
+  <si>
+    <t>0:00:00.073140</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:30.799793</t>
+  </si>
+  <si>
+    <t>493.5040526682633</t>
+  </si>
+  <si>
+    <t>(1088, 541)</t>
+  </si>
+  <si>
+    <t>(1499, 587)</t>
+  </si>
+  <si>
+    <t>413.56619784503664</t>
+  </si>
+  <si>
+    <t>0:00:00.503231</t>
+  </si>
+  <si>
+    <t>[[1187, 541, datetime.timedelta(microseconds=71094), 1025.699243856242], [1277, 553, datetime.timedelta(microseconds=140874), 303.1643305686149, -5128.944399162564], [1360, 565, datetime.timedelta(microseconds=209689), 188.11984703533813, -548.6433887007748], [1431, 572, datetime.timedelta(microseconds=279537), 120.04927675674261, -243.51184379382877], [1475, 578, datetime.timedelta(microseconds=349872), 59.70136000042268, -172.48569978826524], [1503, 587, datetime.timedelta(microseconds=432420), 31.992062390839134, -64.07959301046101]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:32.022276</t>
+  </si>
+  <si>
+    <t>194.52928565303577</t>
+  </si>
+  <si>
+    <t>60.75565817271673</t>
+  </si>
+  <si>
+    <t>(974, 547)</t>
+  </si>
+  <si>
+    <t>(977, 556)</t>
+  </si>
+  <si>
+    <t>9.486832980505138</t>
+  </si>
+  <si>
+    <t>0:00:00.071365</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:34.064081</t>
+  </si>
+  <si>
+    <t>4.4623251426820465</t>
+  </si>
+  <si>
+    <t>483.76466386043535</t>
+  </si>
+  <si>
+    <t>(992, 550)</t>
+  </si>
+  <si>
+    <t>(1456, 578)</t>
+  </si>
+  <si>
+    <t>464.84405987384633</t>
+  </si>
+  <si>
+    <t>0:00:00.583749</t>
+  </si>
+  <si>
+    <t>[[1060, 550, datetime.timedelta(microseconds=71807), 199.5479001468889], [1153, 547, datetime.timedelta(microseconds=140743), 310.9724702704606, 791.6881843045243], [1240, 556, datetime.timedelta(microseconds=209569), 196.3105470553992, -547.1320816297323], [1308, 553, datetime.timedelta(microseconds=282152), 113.47180776506532, -293.5961442425852], [1363, 565, datetime.timedelta(microseconds=352964), 75.01889518141066, -108.94287401450195], [1428, 572, datetime.timedelta(microseconds=432581), 71.08693270093647, -9.08954041086914], [1456, 578, datetime.timedelta(microseconds=509677), 26.4272423375196, -87.62351521339373]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:35.317352</t>
+  </si>
+  <si>
+    <t>218.64887260732775</t>
+  </si>
+  <si>
+    <t>38.265519727294965</t>
+  </si>
+  <si>
+    <t>(971, 547)</t>
+  </si>
+  <si>
+    <t>(974, 544)</t>
+  </si>
+  <si>
+    <t>4.242640687119286</t>
+  </si>
+  <si>
+    <t>0:00:00.073838</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:37.893689</t>
+  </si>
+  <si>
+    <t>1.9956124713487013</t>
+  </si>
+  <si>
+    <t>515.5155186800878</t>
+  </si>
+  <si>
+    <t>(516, 559)</t>
+  </si>
+  <si>
+    <t>445.2527372178637</t>
+  </si>
+  <si>
+    <t>0:00:00.462767</t>
+  </si>
+  <si>
+    <t>[[915, 547, datetime.timedelta(microseconds=71854), 768.1675856233812], [766, 550, datetime.timedelta(microseconds=165176), 424.39210031916195, -2081.2677707670564], [652, 556, datetime.timedelta(microseconds=237079), 226.4917595668708, -834.7442867242193], [572, 562, datetime.timedelta(microseconds=308887), 122.16543445321842, -337.749161064248], [516, 562, datetime.timedelta(microseconds=388858), 67.73871372259474, -139.9655419989397]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:39.329541</t>
+  </si>
+  <si>
+    <t>209.43369491358774</t>
+  </si>
+  <si>
+    <t>60.55782360686355</t>
+  </si>
+  <si>
+    <t>(980, 547)</t>
+  </si>
+  <si>
+    <t>(977, 547)</t>
+  </si>
+  <si>
+    <t>0:00:00.086771</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:41.500690</t>
+  </si>
+  <si>
+    <t>483.55066952698974</t>
+  </si>
+  <si>
+    <t>(1066, 547)</t>
+  </si>
+  <si>
+    <t>(1444, 581)</t>
+  </si>
+  <si>
+    <t>379.52602018833966</t>
+  </si>
+  <si>
+    <t>0:00:00.683039</t>
+  </si>
+  <si>
+    <t>[[1147, 547, datetime.timedelta(microseconds=88736), 611.4541098899825], [1255, 556, datetime.timedelta(microseconds=167907), 303.59713244169325, -1833.49698016336], [1317, 562, datetime.timedelta(microseconds=249686), 117.34419976999109, -745.9486421813884], [1385, 569, datetime.timedelta(microseconds=333972), 96.27816181576105, -63.07725783667505], [1419, 578, datetime.timedelta(microseconds=426725), 38.768296611769834, -134.77032094203813], [1447, 578, datetime.timedelta(microseconds=512497), 25.698434079361192, -25.502320076817313], [1441, 584, datetime.timedelta(microseconds=595273), 6.704864730463843, -31.90732546058254]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:42.961999</t>
+  </si>
+  <si>
+    <t>178.517794681182</t>
+  </si>
+  <si>
+    <t>44.1955880150949</t>
+  </si>
+  <si>
+    <t>(958, 538)</t>
+  </si>
+  <si>
+    <t>0:00:00.076793</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:45.330126</t>
+  </si>
+  <si>
+    <t>502.50398008374026</t>
+  </si>
+  <si>
+    <t>(1017, 535)</t>
+  </si>
+  <si>
+    <t>(1472, 581)</t>
+  </si>
+  <si>
+    <t>457.31936324629856</t>
+  </si>
+  <si>
+    <t>0:00:00.658167</t>
+  </si>
+  <si>
+    <t>[[1094, 538, datetime.timedelta(microseconds=71511), 407.81086774010953], [1178, 538, datetime.timedelta(microseconds=144316), 273.7819168429773, -928.7185821193231], [1286, 547, datetime.timedelta(microseconds=217998), 233.8373917049119, -183.23344772917818], [1345, 559, datetime.timedelta(microseconds=290915), 97.34818249104339, -469.1721266138512], [1391, 565, datetime.timedelta(microseconds=361428), 60.37251884817331, -102.30436945358436], [1438, 572, datetime.timedelta(microseconds=433626), 51.5450079802726, -20.357429831008073], [1468, 578, datetime.timedelta(microseconds=505401), 28.473560960121382, -45.649785062062044], [1475, 578, datetime.timedelta(microseconds=587306), 5.606264183564603, -38.93591547942091]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:46.667995</t>
+  </si>
+  <si>
+    <t>215.10947826770342</t>
+  </si>
+  <si>
+    <t>42.582273307093416</t>
+  </si>
+  <si>
+    <t>(946, 538)</t>
+  </si>
+  <si>
+    <t>(946, 541)</t>
+  </si>
+  <si>
+    <t>0:00:00.081961</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:49.014717</t>
+  </si>
+  <si>
+    <t>514.5009718163806</t>
+  </si>
+  <si>
+    <t>(937, 538)</t>
+  </si>
+  <si>
+    <t>(466, 562)</t>
+  </si>
+  <si>
+    <t>471.61106857239895</t>
+  </si>
+  <si>
+    <t>0:00:00.613976</t>
+  </si>
+  <si>
+    <t>[[887, 544, datetime.timedelta(microseconds=73785), 925.148330077963], [813, 547, datetime.timedelta(microseconds=147590), 236.03224654719273, -4669.124490350094], [677, 550, datetime.timedelta(microseconds=223743), 285.9795935650553, 223.23535045951203], [593, 556, datetime.timedelta(microseconds=301366), 131.44076148437534, -512.7945159065057], [531, 556, datetime.timedelta(microseconds=377194), 77.31555370171044, -143.49434981114467], [494, 559, datetime.timedelta(microseconds=454952), 38.379471233519865, -85.58283614137443], [466, 562, datetime.timedelta(microseconds=532193), 24.888996838055313, -25.348838476764165]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:50.328374</t>
+  </si>
+  <si>
+    <t>221.83187299516547</t>
+  </si>
+  <si>
+    <t>23.243278598338918</t>
+  </si>
+  <si>
+    <t>(980, 541)</t>
+  </si>
+  <si>
+    <t>(977, 544)</t>
+  </si>
+  <si>
+    <t>0:00:00.078825</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:52.455759</t>
+  </si>
+  <si>
+    <t>518.5154288929116</t>
+  </si>
+  <si>
+    <t>(1032, 538)</t>
+  </si>
+  <si>
+    <t>(1462, 569)</t>
+  </si>
+  <si>
+    <t>431.11599367223664</t>
+  </si>
+  <si>
+    <t>0:00:00.495559</t>
+  </si>
+  <si>
+    <t>[[1169, 544, datetime.timedelta(microseconds=86793), 743.1764269185363], [1267, 553, datetime.timedelta(microseconds=162557), 284.7633501162613, -2820.0143752792874], [1397, 562, datetime.timedelta(microseconds=246217), 248.9450827651504, -145.47438784125742], [1447, 569, datetime.timedelta(microseconds=330998), 71.74629929702031, -535.3469914263231], [1465, 572, datetime.timedelta(microseconds=413778), 20.744103825612175, -123.25980470544144]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:10:53.778641</t>
+  </si>
+  <si>
+    <t>202.78418961620022</t>
+  </si>
+  <si>
+    <t>29.03876719146321</t>
   </si>
   <si>
     <t>Subject Code:</t>
@@ -660,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -756,260 +888,260 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
         <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
         <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
         <v>65</v>
       </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
         <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>79</v>
       </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>80</v>
       </c>
-      <c r="G11" t="s">
-        <v>53</v>
-      </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
@@ -1032,94 +1164,318 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
         <v>86</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>87</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
         <v>88</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
         <v>90</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>91</v>
       </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>92</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>98</v>
       </c>
       <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>99</v>
       </c>
-      <c r="F14" t="s">
-        <v>100</v>
-      </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
         <v>103</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Start</t>
   </si>
@@ -46,238 +46,64 @@
     <t>Distance From Center</t>
   </si>
   <si>
-    <t>(864, 552)</t>
-  </si>
-  <si>
-    <t>(549, 531)</t>
-  </si>
-  <si>
-    <t>315.69922394583114</t>
-  </si>
-  <si>
-    <t>0:00:00.500382</t>
-  </si>
-  <si>
-    <t>[[782, 546, datetime.timedelta(microseconds=70076), 2002.7855883443403], [711, 540, datetime.timedelta(microseconds=143944), 229.9964528180429, -12315.825150935765], [644, 540, datetime.timedelta(microseconds=213423), 145.86285360471012, -394.2105546887298], [592, 537, datetime.timedelta(microseconds=284267), 85.13528102741546, -213.62863989592415], [559, 534, datetime.timedelta(microseconds=354386), 43.44459335798322, -117.64202781552386], [549, 534, datetime.timedelta(microseconds=432588), 10.740800631119297, -75.60032346450647]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 14:27:11.591600</t>
-  </si>
-  <si>
-    <t>146.68463941873372</t>
-  </si>
-  <si>
-    <t>miss</t>
-  </si>
-  <si>
-    <t>(458.5, 540.0)</t>
-  </si>
-  <si>
-    <t>90.94641279346867</t>
-  </si>
-  <si>
-    <t>(922, 543)</t>
-  </si>
-  <si>
-    <t>(467, 546)</t>
-  </si>
-  <si>
-    <t>455.00989000240423</t>
-  </si>
-  <si>
-    <t>0:00:00.504427</t>
-  </si>
-  <si>
-    <t>[[840, 546, datetime.timedelta(microseconds=69214), 1638.4691365454023], [727, 546, datetime.timedelta(microseconds=140848), 372.76822203073783, -8986.28957823089], [626, 549, datetime.timedelta(microseconds=210020), 223.54416597375572, -710.5230742642706], [516, 552, datetime.timedelta(microseconds=296090), 172.6797944034114, -171.78686065164084], [470, 552, datetime.timedelta(microseconds=366227), 58.360445111112284, -312.15434496172895], [464, 549, datetime.timedelta(microseconds=435037), 7.1645873975346746, -117.68161722698899]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 14:27:14.535390</t>
-  </si>
-  <si>
-    <t>211.41313181819027</t>
+    <t>(992, 552)</t>
+  </si>
+  <si>
+    <t>(1261, 559)</t>
+  </si>
+  <si>
+    <t>269.09106265351886</t>
+  </si>
+  <si>
+    <t>0:00:00.548000</t>
+  </si>
+  <si>
+    <t>[[1030, 554, datetime.timedelta(microseconds=78187), 36.67798912202631], [1050, 557, datetime.timedelta(microseconds=149005), 55.60359089166522, 127.01319935330298], [1083, 559, datetime.timedelta(microseconds=232001), 58.37975273915533, 11.966163281581151], [1243, 559, datetime.timedelta(microseconds=316999), 206.77789865827398, 468.1344291910027], [1253, 559, datetime.timedelta(microseconds=393000), 10.424361815644751, -499.62732021025255], [1261, 559, datetime.timedelta(microseconds=470043), 6.972594751626361, -7.343513389239686]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:52:35.139728</t>
+  </si>
+  <si>
+    <t>110.24053211934482</t>
   </si>
   <si>
     <t>hit</t>
   </si>
   <si>
-    <t>10.404326023342406</t>
-  </si>
-  <si>
-    <t>(1032, 543)</t>
-  </si>
-  <si>
-    <t>(1414, 592)</t>
-  </si>
-  <si>
-    <t>385.1298482330343</t>
-  </si>
-  <si>
-    <t>0:00:00.655182</t>
-  </si>
-  <si>
-    <t>[[1108, 552, datetime.timedelta(microseconds=70814), 157.47196193118765], [1188, 562, datetime.timedelta(microseconds=140826), 266.0020341744809, 770.6678613558097], [1304, 577, datetime.timedelta(microseconds=220732), 246.20946610533016, -89.66786904096709], [1347, 589, datetime.timedelta(microseconds=290836), 71.32086629657383, -601.3306461674496], [1374, 592, datetime.timedelta(microseconds=360666), 34.99726458927362, -100.71257536696059], [1380, 592, datetime.timedelta(microseconds=431462), 6.461298742528382, -66.13784260663799], [1399, 589, datetime.timedelta(microseconds=503270), 17.75869066911371, 22.447974102540048], [1414, 589, datetime.timedelta(microseconds=572794), 12.167571928340644, -9.761133567692866]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 14:27:17.307301</t>
-  </si>
-  <si>
-    <t>178.94447826437326</t>
-  </si>
-  <si>
-    <t>(1460.5, 540.0)</t>
-  </si>
-  <si>
-    <t>69.75851202541523</t>
-  </si>
-  <si>
-    <t>(1041, 537)</t>
-  </si>
-  <si>
-    <t>(1454, 580)</t>
-  </si>
-  <si>
-    <t>415.23246501207007</t>
-  </si>
-  <si>
-    <t>0:00:00.540639</t>
-  </si>
-  <si>
-    <t>[[1133, 543, datetime.timedelta(microseconds=73788), 313.7084903353919], [1279, 562, datetime.timedelta(microseconds=156416), 437.3504085345623, 790.4684827586077], [1350, 571, datetime.timedelta(microseconds=227836), 145.95150008770923, -1278.9853598503005], [1408, 574, datetime.timedelta(microseconds=301109), 89.61806392246002, -187.08652403365298], [1448, 583, datetime.timedelta(microseconds=397059), 47.97775645433047, -104.87183886558309], [1457, 580, datetime.timedelta(microseconds=467868), 9.42126100391787, -82.40891758019912]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 14:27:20.139442</t>
-  </si>
-  <si>
-    <t>192.93118191414476</t>
-  </si>
-  <si>
-    <t>40.52468383590426</t>
-  </si>
-  <si>
-    <t>(892, 537)</t>
-  </si>
-  <si>
-    <t>(458, 565)</t>
-  </si>
-  <si>
-    <t>434.90228787625387</t>
-  </si>
-  <si>
-    <t>0:00:00.523901</t>
-  </si>
-  <si>
-    <t>[[754, 543, datetime.timedelta(microseconds=80182), 1912.9764906677087], [647, 546, datetime.timedelta(microseconds=150193), 331.143199138669, -10532.004098253847], [559, 555, datetime.timedelta(microseconds=224200), 183.32330918973489, -659.3215430371727], [494, 559, datetime.timedelta(microseconds=294647), 102.69356625117169, -273.64861321704683], [461, 565, datetime.timedelta(microseconds=367992), 42.34957020344589, -163.98181495175385], [455, 565, datetime.timedelta(microseconds=450475), 6.188589551137756, -80.27300216950584]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 14:27:22.711364</t>
-  </si>
-  <si>
-    <t>202.07045326933257</t>
-  </si>
-  <si>
-    <t>25.004999500099974</t>
-  </si>
-  <si>
-    <t>(864, 546)</t>
-  </si>
-  <si>
-    <t>(467, 571)</t>
-  </si>
-  <si>
-    <t>397.7863748295057</t>
-  </si>
-  <si>
-    <t>0:00:00.437834</t>
-  </si>
-  <si>
-    <t>[[751, 549, datetime.timedelta(microseconds=67108), 2305.6781522937167], [641, 559, datetime.timedelta(microseconds=143103), 358.6264360114101, -13605.946180599338], [546, 568, datetime.timedelta(microseconds=220038), 201.50102396549718, -714.0830767681623], [491, 565, datetime.timedelta(microseconds=289879), 88.28809722616268, -390.552357153621], [470, 571, datetime.timedelta(microseconds=366972), 27.652689935563746, -165.2316996680917]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 14:27:25.192496</t>
-  </si>
-  <si>
-    <t>184.82513269517275</t>
-  </si>
-  <si>
-    <t>32.14420632089086</t>
-  </si>
-  <si>
-    <t>(919, 559)</t>
-  </si>
-  <si>
-    <t>(430, 552)</t>
-  </si>
-  <si>
-    <t>489.0500996830488</t>
-  </si>
-  <si>
-    <t>0:00:00.433338</t>
-  </si>
-  <si>
-    <t>[[788, 555, datetime.timedelta(microseconds=68608), 2004.7045655095242], [653, 559, datetime.timedelta(microseconds=142612), 440.0270495539459, -10971.569825509623], [559, 552, datetime.timedelta(microseconds=211235), 207.33563936445802, -1101.5760181290407], [455, 555, datetime.timedelta(microseconds=288948), 167.30363733661324, -138.54396648478198], [430, 555, datetime.timedelta(microseconds=359282), 32.33074203143099, -375.6739700435375]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 14:27:27.735497</t>
-  </si>
-  <si>
-    <t>227.22937558444096</t>
-  </si>
-  <si>
-    <t>30.92329219213245</t>
-  </si>
-  <si>
-    <t>(992, 552)</t>
-  </si>
-  <si>
-    <t>(1435, 595)</t>
-  </si>
-  <si>
-    <t>445.08201491410546</t>
-  </si>
-  <si>
-    <t>0:00:00.507174</t>
-  </si>
-  <si>
-    <t>[[1047, 552, datetime.timedelta(microseconds=70810), 242.7829884851595], [1127, 555, datetime.timedelta(microseconds=140622), 264.51663463883256, 154.55366979329727], [1212, 562, datetime.timedelta(microseconds=211432), 187.4247989769177, -364.6176343312027], [1344, 580, datetime.timedelta(microseconds=288349), 214.66803637658663, 94.4800828151612], [1408, 592, datetime.timedelta(microseconds=367364), 82.35641936732635, -360.1648964222413], [1435, 595, datetime.timedelta(microseconds=437071), 28.87934324252801, -122.35329299998935]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 14:27:30.168155</t>
-  </si>
-  <si>
-    <t>206.80030205155387</t>
-  </si>
-  <si>
-    <t>60.62384019509157</t>
-  </si>
-  <si>
-    <t>(1084, 552)</t>
-  </si>
-  <si>
-    <t>(1393, 580)</t>
-  </si>
-  <si>
-    <t>310.26601489689455</t>
-  </si>
-  <si>
-    <t>0:00:00.582132</t>
-  </si>
-  <si>
-    <t>[[1157, 559, datetime.timedelta(microseconds=69816), 488.05251970272775], [1225, 562, datetime.timedelta(microseconds=141416), 223.6370343669348, -1869.77064360322], [1283, 574, datetime.timedelta(microseconds=211228), 130.28350345690686, -441.9562317023688], [1328, 577, datetime.timedelta(microseconds=283036), 74.03633632608759, -198.72796086299715], [1347, 577, datetime.timedelta(microseconds=353368), 24.98259259606927, -138.8177303265104], [1356, 583, datetime.timedelta(microseconds=431510), 11.646976239013595, -30.90453606418316], [1389, 583, datetime.timedelta(microseconds=510513), 30.03435138628848, 36.017447444580036]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 14:27:32.825000</t>
-  </si>
-  <si>
-    <t>144.16018497038635</t>
-  </si>
-  <si>
-    <t>78.46177413237608</t>
+    <t>(1273.5, 540.0)</t>
+  </si>
+  <si>
+    <t>22.743130831088315</t>
+  </si>
+  <si>
+    <t>(1023, 554)</t>
+  </si>
+  <si>
+    <t>(1258, 562)</t>
+  </si>
+  <si>
+    <t>235.1361307838504</t>
+  </si>
+  <si>
+    <t>0:00:00.470306</t>
+  </si>
+  <si>
+    <t>[[1083, 557, datetime.timedelta(microseconds=93662), 262.7677370553693], [1114, 557, datetime.timedelta(microseconds=166907), 76.09027781938444, -1118.4519477073154], [1164, 562, datetime.timedelta(microseconds=237943), 86.51666805280914, 43.818856757394414], [1250, 559, datetime.timedelta(microseconds=316941), 111.2310750462082, 77.97794224603024], [1261, 562, datetime.timedelta(microseconds=392267), 11.907810898352933, -253.2032114550938]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:52:45.029205</t>
+  </si>
+  <si>
+    <t>96.32996325660967</t>
+  </si>
+  <si>
+    <t>26.911893281595777</t>
   </si>
   <si>
     <t>Subject Code:</t>
   </si>
   <si>
-    <t>m</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -609,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,245 +528,21 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Start</t>
   </si>
@@ -46,58 +46,88 @@
     <t>Distance From Center</t>
   </si>
   <si>
-    <t>(992, 552)</t>
-  </si>
-  <si>
-    <t>(1261, 559)</t>
-  </si>
-  <si>
-    <t>269.09106265351886</t>
-  </si>
-  <si>
-    <t>0:00:00.548000</t>
-  </si>
-  <si>
-    <t>[[1030, 554, datetime.timedelta(microseconds=78187), 36.67798912202631], [1050, 557, datetime.timedelta(microseconds=149005), 55.60359089166522, 127.01319935330298], [1083, 559, datetime.timedelta(microseconds=232001), 58.37975273915533, 11.966163281581151], [1243, 559, datetime.timedelta(microseconds=316999), 206.77789865827398, 468.1344291910027], [1253, 559, datetime.timedelta(microseconds=393000), 10.424361815644751, -499.62732021025255], [1261, 559, datetime.timedelta(microseconds=470043), 6.972594751626361, -7.343513389239686]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 14:52:35.139728</t>
-  </si>
-  <si>
-    <t>110.24053211934482</t>
+    <t>(664, 549)</t>
+  </si>
+  <si>
+    <t>(531, 552)</t>
+  </si>
+  <si>
+    <t>133.0338302838793</t>
+  </si>
+  <si>
+    <t>0:00:00.236185</t>
+  </si>
+  <si>
+    <t>[[541, 554, datetime.timedelta(microseconds=77279), 2727.850365128794], [531, 552, datetime.timedelta(microseconds=160398), 26.915359635668104, -16838.956879095287]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 15:13:22.015893</t>
+  </si>
+  <si>
+    <t>56.317654820175576</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>(645.5, 540.0)</t>
+  </si>
+  <si>
+    <t>115.12710367241937</t>
+  </si>
+  <si>
+    <t>(1083, 541)</t>
+  </si>
+  <si>
+    <t>(1454, 549)</t>
+  </si>
+  <si>
+    <t>371.0862433451286</t>
+  </si>
+  <si>
+    <t>0:00:00.500964</t>
+  </si>
+  <si>
+    <t>[[1151, 549, datetime.timedelta(microseconds=77005), 637.4467985693265], [1180, 549, datetime.timedelta(microseconds=151974), 80.78136172415458, -3662.8991593639166], [1329, 559, datetime.timedelta(microseconds=234724), 269.33149240499637, 803.2844135275549], [1452, 557, datetime.timedelta(microseconds=322965), 161.24621248094928, -334.6656136858393], [1452, 552, datetime.timedelta(microseconds=413939), 5.113474851769626, -377.18779247468746]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 15:13:27.348214</t>
+  </si>
+  <si>
+    <t>157.09317634943778</t>
+  </si>
+  <si>
+    <t>(1273.5, 540.0)</t>
+  </si>
+  <si>
+    <t>180.7242374447877</t>
+  </si>
+  <si>
+    <t>(1038, 523)</t>
+  </si>
+  <si>
+    <t>(1287, 486)</t>
+  </si>
+  <si>
+    <t>251.73398658107334</t>
+  </si>
+  <si>
+    <t>0:00:00.621378</t>
+  </si>
+  <si>
+    <t>[[1067, 512, datetime.timedelta(microseconds=81938), 160.24505742125305], [1114, 510, datetime.timedelta(microseconds=164523), 121.04491592989531, -238.26541876429278], [1216, 507, datetime.timedelta(microseconds=250489), 172.4573631309366, 205.24832308421253], [1227, 499, datetime.timedelta(microseconds=346485), 16.618196599269826, -449.77175500141936], [1253, 494, datetime.timedelta(microseconds=442484), 25.330508243596956, 19.689551812782227], [1287, 489, datetime.timedelta(microseconds=538484), 27.016843771710054, 3.131635346849856]]</t>
+  </si>
+  <si>
+    <t>2022-07-15 15:13:32.185694</t>
+  </si>
+  <si>
+    <t>106.56738765265439</t>
   </si>
   <si>
     <t>hit</t>
   </si>
   <si>
-    <t>(1273.5, 540.0)</t>
-  </si>
-  <si>
-    <t>22.743130831088315</t>
-  </si>
-  <si>
-    <t>(1023, 554)</t>
-  </si>
-  <si>
-    <t>(1258, 562)</t>
-  </si>
-  <si>
-    <t>235.1361307838504</t>
-  </si>
-  <si>
-    <t>0:00:00.470306</t>
-  </si>
-  <si>
-    <t>[[1083, 557, datetime.timedelta(microseconds=93662), 262.7677370553693], [1114, 557, datetime.timedelta(microseconds=166907), 76.09027781938444, -1118.4519477073154], [1164, 562, datetime.timedelta(microseconds=237943), 86.51666805280914, 43.818856757394414], [1250, 559, datetime.timedelta(microseconds=316941), 111.2310750462082, 77.97794224603024], [1261, 562, datetime.timedelta(microseconds=392267), 11.907810898352933, -253.2032114550938]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 14:52:45.029205</t>
-  </si>
-  <si>
-    <t>96.32996325660967</t>
-  </si>
-  <si>
-    <t>26.911893281595777</t>
+    <t>55.66192594583842</t>
   </si>
   <si>
     <t>Subject Code:</t>
@@ -435,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,18 +561,50 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Start</t>
   </si>
@@ -46,88 +46,112 @@
     <t>Distance From Center</t>
   </si>
   <si>
-    <t>(664, 549)</t>
-  </si>
-  <si>
-    <t>(531, 552)</t>
-  </si>
-  <si>
-    <t>133.0338302838793</t>
-  </si>
-  <si>
-    <t>0:00:00.236185</t>
-  </si>
-  <si>
-    <t>[[541, 554, datetime.timedelta(microseconds=77279), 2727.850365128794], [531, 552, datetime.timedelta(microseconds=160398), 26.915359635668104, -16838.956879095287]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 15:13:22.015893</t>
-  </si>
-  <si>
-    <t>56.317654820175576</t>
+    <t>(726, 347)</t>
+  </si>
+  <si>
+    <t>(840, 341)</t>
+  </si>
+  <si>
+    <t>114.15778554264269</t>
+  </si>
+  <si>
+    <t>0:00:00.242883</t>
+  </si>
+  <si>
+    <t>[[837, 339, datetime.timedelta(microseconds=108936), 203.11786467979857]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 13:22:23.360727</t>
+  </si>
+  <si>
+    <t>35.07590023527973</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>(893.5, 360.0)</t>
+  </si>
+  <si>
+    <t>56.77367347635698</t>
+  </si>
+  <si>
+    <t>(614, 327)</t>
+  </si>
+  <si>
+    <t>(460, 325)</t>
+  </si>
+  <si>
+    <t>154.01298646542764</t>
+  </si>
+  <si>
+    <t>0:00:00.502601</t>
+  </si>
+  <si>
+    <t>[[563, 322, datetime.timedelta(microseconds=147599), 436.052055827327], [487, 321, datetime.timedelta(microseconds=254267), 91.84689421110689, -1353.7154314803738], [462, 325, datetime.timedelta(microseconds=387026), 20.099819797663816, -185.3805026366267]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 13:22:30.539934</t>
+  </si>
+  <si>
+    <t>47.321732131716075</t>
   </si>
   <si>
     <t>miss</t>
   </si>
   <si>
-    <t>(645.5, 540.0)</t>
-  </si>
-  <si>
-    <t>115.12710367241937</t>
-  </si>
-  <si>
-    <t>(1083, 541)</t>
-  </si>
-  <si>
-    <t>(1454, 549)</t>
-  </si>
-  <si>
-    <t>371.0862433451286</t>
-  </si>
-  <si>
-    <t>0:00:00.500964</t>
-  </si>
-  <si>
-    <t>[[1151, 549, datetime.timedelta(microseconds=77005), 637.4467985693265], [1180, 549, datetime.timedelta(microseconds=151974), 80.78136172415458, -3662.8991593639166], [1329, 559, datetime.timedelta(microseconds=234724), 269.33149240499637, 803.2844135275549], [1452, 557, datetime.timedelta(microseconds=322965), 161.24621248094928, -334.6656136858393], [1452, 552, datetime.timedelta(microseconds=413939), 5.113474851769626, -377.18779247468746]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 15:13:27.348214</t>
-  </si>
-  <si>
-    <t>157.09317634943778</t>
-  </si>
-  <si>
-    <t>(1273.5, 540.0)</t>
-  </si>
-  <si>
-    <t>180.7242374447877</t>
-  </si>
-  <si>
-    <t>(1038, 523)</t>
-  </si>
-  <si>
-    <t>(1287, 486)</t>
-  </si>
-  <si>
-    <t>251.73398658107334</t>
-  </si>
-  <si>
-    <t>0:00:00.621378</t>
-  </si>
-  <si>
-    <t>[[1067, 512, datetime.timedelta(microseconds=81938), 160.24505742125305], [1114, 510, datetime.timedelta(microseconds=164523), 121.04491592989531, -238.26541876429278], [1216, 507, datetime.timedelta(microseconds=250489), 172.4573631309366, 205.24832308421253], [1227, 499, datetime.timedelta(microseconds=346485), 16.618196599269826, -449.77175500141936], [1253, 494, datetime.timedelta(microseconds=442484), 25.330508243596956, 19.689551812782227], [1287, 489, datetime.timedelta(microseconds=538484), 27.016843771710054, 3.131635346849856]]</t>
-  </si>
-  <si>
-    <t>2022-07-15 15:13:32.185694</t>
-  </si>
-  <si>
-    <t>106.56738765265439</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>55.66192594583842</t>
+    <t>(385.5, 360.0)</t>
+  </si>
+  <si>
+    <t>82.31190679361036</t>
+  </si>
+  <si>
+    <t>(740, 311)</t>
+  </si>
+  <si>
+    <t>(789, 294)</t>
+  </si>
+  <si>
+    <t>51.86520991955976</t>
+  </si>
+  <si>
+    <t>0:00:00.265873</t>
+  </si>
+  <si>
+    <t>[[791, 294, datetime.timedelta(microseconds=128906), 56.25456306219969]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 13:22:37.459518</t>
+  </si>
+  <si>
+    <t>15.936004015606668</t>
+  </si>
+  <si>
+    <t>123.59712779834328</t>
+  </si>
+  <si>
+    <t>(772, 308)</t>
+  </si>
+  <si>
+    <t>(809, 314)</t>
+  </si>
+  <si>
+    <t>37.48332962798263</t>
+  </si>
+  <si>
+    <t>0:00:00.407476</t>
+  </si>
+  <si>
+    <t>[[809, 308, datetime.timedelta(microseconds=145702), 78.02602838050798], [809, 314, datetime.timedelta(microseconds=280409), 6.574497919456132, -254.81183008053185]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 13:22:50.890073</t>
+  </si>
+  <si>
+    <t>11.517055313114017</t>
+  </si>
+  <si>
+    <t>96.20940702446929</t>
   </si>
   <si>
     <t>Subject Code:</t>
@@ -465,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,42 +582,42 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
         <v>37</v>
@@ -605,6 +629,38 @@
       </c>
       <c r="B5" t="s">
         <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Start</t>
   </si>
@@ -46,118 +46,94 @@
     <t>Distance From Center</t>
   </si>
   <si>
-    <t>(726, 347)</t>
-  </si>
-  <si>
-    <t>(840, 341)</t>
-  </si>
-  <si>
-    <t>114.15778554264269</t>
-  </si>
-  <si>
-    <t>0:00:00.242883</t>
-  </si>
-  <si>
-    <t>[[837, 339, datetime.timedelta(microseconds=108936), 203.11786467979857]]</t>
-  </si>
-  <si>
-    <t>2022-07-18 13:22:23.360727</t>
-  </si>
-  <si>
-    <t>35.07590023527973</t>
+    <t>(547, 362)</t>
+  </si>
+  <si>
+    <t>(484, 381)</t>
+  </si>
+  <si>
+    <t>65.80273550544841</t>
+  </si>
+  <si>
+    <t>0:00:00.690796</t>
+  </si>
+  <si>
+    <t>[[505, 373, datetime.timedelta(microseconds=136001), 200.84810798557422], [492, 371, datetime.timedelta(microseconds=277003), 21.796434777706118, -646.3889315562218], [486, 385, datetime.timedelta(microseconds=420800), 16.61556618107878, -12.311950087042153], [484, 381, datetime.timedelta(microseconds=565304), 3.631447940954, -22.968382038911415]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 13:59:41.543855</t>
+  </si>
+  <si>
+    <t>30.205834009127525</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>(428.0, 360.0)</t>
+  </si>
+  <si>
+    <t>59.80802621722272</t>
+  </si>
+  <si>
+    <t>(710, 375)</t>
+  </si>
+  <si>
+    <t>(844, 415)</t>
+  </si>
+  <si>
+    <t>139.84276885130672</t>
+  </si>
+  <si>
+    <t>0:00:00.590395</t>
+  </si>
+  <si>
+    <t>[[796, 406, datetime.timedelta(microseconds=208394), 537.4530806935257], [842, 415, datetime.timedelta(microseconds=420094), 51.217152911941916, -1157.4455426204227]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 13:59:48.176819</t>
+  </si>
+  <si>
+    <t>64.19288546066008</t>
   </si>
   <si>
     <t>hit</t>
   </si>
   <si>
-    <t>(893.5, 360.0)</t>
-  </si>
-  <si>
-    <t>56.77367347635698</t>
-  </si>
-  <si>
-    <t>(614, 327)</t>
-  </si>
-  <si>
-    <t>(460, 325)</t>
-  </si>
-  <si>
-    <t>154.01298646542764</t>
-  </si>
-  <si>
-    <t>0:00:00.502601</t>
-  </si>
-  <si>
-    <t>[[563, 322, datetime.timedelta(microseconds=147599), 436.052055827327], [487, 321, datetime.timedelta(microseconds=254267), 91.84689421110689, -1353.7154314803738], [462, 325, datetime.timedelta(microseconds=387026), 20.099819797663816, -185.3805026366267]]</t>
-  </si>
-  <si>
-    <t>2022-07-18 13:22:30.539934</t>
-  </si>
-  <si>
-    <t>47.321732131716075</t>
-  </si>
-  <si>
-    <t>miss</t>
-  </si>
-  <si>
-    <t>(385.5, 360.0)</t>
-  </si>
-  <si>
-    <t>82.31190679361036</t>
-  </si>
-  <si>
-    <t>(740, 311)</t>
-  </si>
-  <si>
-    <t>(789, 294)</t>
-  </si>
-  <si>
-    <t>51.86520991955976</t>
-  </si>
-  <si>
-    <t>0:00:00.265873</t>
-  </si>
-  <si>
-    <t>[[791, 294, datetime.timedelta(microseconds=128906), 56.25456306219969]]</t>
-  </si>
-  <si>
-    <t>2022-07-18 13:22:37.459518</t>
-  </si>
-  <si>
-    <t>15.936004015606668</t>
-  </si>
-  <si>
-    <t>123.59712779834328</t>
-  </si>
-  <si>
-    <t>(772, 308)</t>
-  </si>
-  <si>
-    <t>(809, 314)</t>
-  </si>
-  <si>
-    <t>37.48332962798263</t>
-  </si>
-  <si>
-    <t>0:00:00.407476</t>
-  </si>
-  <si>
-    <t>[[809, 308, datetime.timedelta(microseconds=145702), 78.02602838050798], [809, 314, datetime.timedelta(microseconds=280409), 6.574497919456132, -254.81183008053185]]</t>
-  </si>
-  <si>
-    <t>2022-07-18 13:22:50.890073</t>
-  </si>
-  <si>
-    <t>11.517055313114017</t>
-  </si>
-  <si>
-    <t>96.20940702446929</t>
+    <t>(852.0, 360.0)</t>
+  </si>
+  <si>
+    <t>55.57877292636101</t>
+  </si>
+  <si>
+    <t>(559, 348)</t>
+  </si>
+  <si>
+    <t>(678, 227)</t>
+  </si>
+  <si>
+    <t>169.7115199389835</t>
+  </si>
+  <si>
+    <t>0:00:03.796694</t>
+  </si>
+  <si>
+    <t>[[477, 323, datetime.timedelta(microseconds=161609), 243.4980367780814], [381, 318, datetime.timedelta(microseconds=330717), 133.4288824928215, -332.8197651927779], [362, 321, datetime.timedelta(microseconds=488226), 18.085346825348815, -236.25029324016475], [362, 335, datetime.timedelta(microseconds=637561), 10.079829261978675, -12.55647312707355], [360, 319, datetime.timedelta(microseconds=792517), 9.339528901905195, -0.9341129087117122], [362, 327, datetime.timedelta(microseconds=934024), 4.052689245828128, -5.660282451068782], [360, 321, datetime.timedelta(seconds=1, microseconds=77222), 37.5954972730523, 434.3685481757035], [362, 335, datetime.timedelta(seconds=1, microseconds=222800), 29.137124833128706, -37.963969658543974], [509, 327, datetime.timedelta(seconds=1, microseconds=373520), 180.92248235523147, 406.36473956442165], [691, 381, datetime.timedelta(seconds=1, microseconds=662303), 131.5777792603786, -74.50472532187362], [465, 325, datetime.timedelta(seconds=1, microseconds=806844), 132.46618361503576, 1.101085655538313], [318, 275, datetime.timedelta(seconds=1, microseconds=956519), 74.51485842321786, -60.5856498321705], [459, 270, datetime.timedelta(seconds=2, microseconds=113482), 570.7052950603302, 4372.415331392753], [772, 319, datetime.timedelta(seconds=2, microseconds=271750), 535.154636715102, -130.8211898628451], [632, 291, datetime.timedelta(seconds=2, microseconds=419753), 156.1341056339755, -902.9608628910967], [296, 241, datetime.timedelta(seconds=2, microseconds=609953), 255.6500541923768, 163.1534701172079], [413, 132, datetime.timedelta(seconds=2, microseconds=775720), 94.62529763159239, -207.5810299602749], [683, 199, datetime.timedelta(seconds=2, microseconds=928935), 137.4678607749794, 46.12008713568444], [670, 212, datetime.timedelta(seconds=3, microseconds=80827), 104.4116054866245, -408.9754078260349], [658, 233, datetime.timedelta(seconds=3, microseconds=221791), 50.058853335468065, -245.06292929449992], [683, 239, datetime.timedelta(seconds=3, microseconds=363827), 32.437896790424865, -48.43223989710275], [672, 224, datetime.timedelta(seconds=3, microseconds=504925), 16.910562681868615, -30.751763348133387], [676, 224, datetime.timedelta(seconds=3, microseconds=654045), 2.8073673498203537, -21.563035161263006]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 14:00:03.569802</t>
+  </si>
+  <si>
+    <t>77.90372180331653</t>
+  </si>
+  <si>
+    <t>283.17662332897464</t>
   </si>
   <si>
     <t>Subject Code:</t>
   </si>
   <si>
-    <t>1</t>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -489,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -614,7 +590,7 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -629,38 +605,6 @@
       </c>
       <c r="B5" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Start</t>
   </si>
@@ -46,88 +46,106 @@
     <t>Distance From Center</t>
   </si>
   <si>
-    <t>(547, 362)</t>
-  </si>
-  <si>
-    <t>(484, 381)</t>
-  </si>
-  <si>
-    <t>65.80273550544841</t>
-  </si>
-  <si>
-    <t>0:00:00.690796</t>
-  </si>
-  <si>
-    <t>[[505, 373, datetime.timedelta(microseconds=136001), 200.84810798557422], [492, 371, datetime.timedelta(microseconds=277003), 21.796434777706118, -646.3889315562218], [486, 385, datetime.timedelta(microseconds=420800), 16.61556618107878, -12.311950087042153], [484, 381, datetime.timedelta(microseconds=565304), 3.631447940954, -22.968382038911415]]</t>
-  </si>
-  <si>
-    <t>2022-07-18 13:59:41.543855</t>
-  </si>
-  <si>
-    <t>30.205834009127525</t>
-  </si>
-  <si>
-    <t>miss</t>
-  </si>
-  <si>
-    <t>(428.0, 360.0)</t>
-  </si>
-  <si>
-    <t>59.80802621722272</t>
-  </si>
-  <si>
-    <t>(710, 375)</t>
-  </si>
-  <si>
-    <t>(844, 415)</t>
-  </si>
-  <si>
-    <t>139.84276885130672</t>
-  </si>
-  <si>
-    <t>0:00:00.590395</t>
-  </si>
-  <si>
-    <t>[[796, 406, datetime.timedelta(microseconds=208394), 537.4530806935257], [842, 415, datetime.timedelta(microseconds=420094), 51.217152911941916, -1157.4455426204227]]</t>
-  </si>
-  <si>
-    <t>2022-07-18 13:59:48.176819</t>
-  </si>
-  <si>
-    <t>64.19288546066008</t>
+    <t>(564, 367)</t>
+  </si>
+  <si>
+    <t>(379, 371)</t>
+  </si>
+  <si>
+    <t>185.04323819042943</t>
+  </si>
+  <si>
+    <t>0:00:01.225507</t>
+  </si>
+  <si>
+    <t>[[479, 367, datetime.timedelta(microseconds=116545), 416.9553640327558], [427, 362, datetime.timedelta(microseconds=233742), 105.12474828050938, -1334.0803781615905], [387, 367, datetime.timedelta(microseconds=347788), 54.51952285715116, -145.50595599433626], [383, 360, datetime.timedelta(microseconds=460534), 8.234456442061992, -100.50303867920537], [379, 371, datetime.timedelta(microseconds=568476), 9.684743123859638, 2.551183659112515], [381, 367, datetime.timedelta(microseconds=684748), 3.072021014299863, -9.657161626700297], [381, 373, datetime.timedelta(microseconds=794539), 3.5520247869798998, 0.6041286490405591], [379, 369, datetime.timedelta(microseconds=910617), 2.3100384085733103, -1.3638954449637877], [381, 365, datetime.timedelta(seconds=1, microseconds=17284), 121.70563790209458, 6907.8685196436745], [381, 371, datetime.timedelta(seconds=1, microseconds=116432), 24.23923167361398, -837.1101263267882]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 14:08:43.849793</t>
+  </si>
+  <si>
+    <t>87.03885648216496</t>
   </si>
   <si>
     <t>hit</t>
   </si>
   <si>
-    <t>(852.0, 360.0)</t>
-  </si>
-  <si>
-    <t>55.57877292636101</t>
-  </si>
-  <si>
-    <t>(559, 348)</t>
-  </si>
-  <si>
-    <t>(678, 227)</t>
-  </si>
-  <si>
-    <t>169.7115199389835</t>
-  </si>
-  <si>
-    <t>0:00:03.796694</t>
-  </si>
-  <si>
-    <t>[[477, 323, datetime.timedelta(microseconds=161609), 243.4980367780814], [381, 318, datetime.timedelta(microseconds=330717), 133.4288824928215, -332.8197651927779], [362, 321, datetime.timedelta(microseconds=488226), 18.085346825348815, -236.25029324016475], [362, 335, datetime.timedelta(microseconds=637561), 10.079829261978675, -12.55647312707355], [360, 319, datetime.timedelta(microseconds=792517), 9.339528901905195, -0.9341129087117122], [362, 327, datetime.timedelta(microseconds=934024), 4.052689245828128, -5.660282451068782], [360, 321, datetime.timedelta(seconds=1, microseconds=77222), 37.5954972730523, 434.3685481757035], [362, 335, datetime.timedelta(seconds=1, microseconds=222800), 29.137124833128706, -37.963969658543974], [509, 327, datetime.timedelta(seconds=1, microseconds=373520), 180.92248235523147, 406.36473956442165], [691, 381, datetime.timedelta(seconds=1, microseconds=662303), 131.5777792603786, -74.50472532187362], [465, 325, datetime.timedelta(seconds=1, microseconds=806844), 132.46618361503576, 1.101085655538313], [318, 275, datetime.timedelta(seconds=1, microseconds=956519), 74.51485842321786, -60.5856498321705], [459, 270, datetime.timedelta(seconds=2, microseconds=113482), 570.7052950603302, 4372.415331392753], [772, 319, datetime.timedelta(seconds=2, microseconds=271750), 535.154636715102, -130.8211898628451], [632, 291, datetime.timedelta(seconds=2, microseconds=419753), 156.1341056339755, -902.9608628910967], [296, 241, datetime.timedelta(seconds=2, microseconds=609953), 255.6500541923768, 163.1534701172079], [413, 132, datetime.timedelta(seconds=2, microseconds=775720), 94.62529763159239, -207.5810299602749], [683, 199, datetime.timedelta(seconds=2, microseconds=928935), 137.4678607749794, 46.12008713568444], [670, 212, datetime.timedelta(seconds=3, microseconds=80827), 104.4116054866245, -408.9754078260349], [658, 233, datetime.timedelta(seconds=3, microseconds=221791), 50.058853335468065, -245.06292929449992], [683, 239, datetime.timedelta(seconds=3, microseconds=363827), 32.437896790424865, -48.43223989710275], [672, 224, datetime.timedelta(seconds=3, microseconds=504925), 16.910562681868615, -30.751763348133387], [676, 224, datetime.timedelta(seconds=3, microseconds=654045), 2.8073673498203537, -21.563035161263006]]</t>
-  </si>
-  <si>
-    <t>2022-07-18 14:00:03.569802</t>
-  </si>
-  <si>
-    <t>77.90372180331653</t>
-  </si>
-  <si>
-    <t>283.17662332897464</t>
+    <t>(416.0, 360.0)</t>
+  </si>
+  <si>
+    <t>38.600518131237564</t>
+  </si>
+  <si>
+    <t>(576, 358)</t>
+  </si>
+  <si>
+    <t>(416, 369)</t>
+  </si>
+  <si>
+    <t>160.37767924496225</t>
+  </si>
+  <si>
+    <t>0:00:00.466837</t>
+  </si>
+  <si>
+    <t>[[516, 354, datetime.timedelta(microseconds=119004), 273.7557543048282], [458, 367, datetime.timedelta(microseconds=231039), 121.01145404937245, -661.1191195229193], [418, 367, datetime.timedelta(microseconds=344831), 54.5624227949773, -192.70028290494517]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 14:08:51.289994</t>
+  </si>
+  <si>
+    <t>75.43690838559337</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>(593, 377)</t>
+  </si>
+  <si>
+    <t>(454, 371)</t>
+  </si>
+  <si>
+    <t>139.12943613772032</t>
+  </si>
+  <si>
+    <t>0:00:00.562122</t>
+  </si>
+  <si>
+    <t>[[555, 375, datetime.timedelta(microseconds=122082), 104.02843990105013], [485, 371, datetime.timedelta(microseconds=232791), 141.6705917678617, 161.69934347466858], [458, 373, datetime.timedelta(microseconds=343206), 37.105396134542076, -304.671817023361], [454, 373, datetime.timedelta(microseconds=452708), 4.156059715051383, -72.78275714034365]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 14:08:57.435283</t>
+  </si>
+  <si>
+    <t>65.44236440552031</t>
+  </si>
+  <si>
+    <t>39.56008088970496</t>
+  </si>
+  <si>
+    <t>(582, 375)</t>
+  </si>
+  <si>
+    <t>(437, 369)</t>
+  </si>
+  <si>
+    <t>145.1240848377691</t>
+  </si>
+  <si>
+    <t>0:00:00.539133</t>
+  </si>
+  <si>
+    <t>[[512, 369, datetime.timedelta(microseconds=95883), 344.6560595914215], [468, 367, datetime.timedelta(microseconds=205065), 101.02975025206085, -1188.0443241867733], [441, 373, datetime.timedelta(microseconds=321080), 40.518878855951336, -188.46041919804884], [437, 367, datetime.timedelta(microseconds=424116), 7.997550145853295, -76.68026839378388]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 14:09:03.708945</t>
+  </si>
+  <si>
+    <t>68.2620695348025</t>
+  </si>
+  <si>
+    <t>22.847319317591726</t>
   </si>
   <si>
     <t>Subject Code:</t>
@@ -465,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,36 +576,36 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -596,15 +614,47 @@
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Start</t>
   </si>
@@ -46,25 +46,25 @@
     <t>Distance From Center</t>
   </si>
   <si>
-    <t>(564, 367)</t>
-  </si>
-  <si>
-    <t>(379, 371)</t>
-  </si>
-  <si>
-    <t>185.04323819042943</t>
-  </si>
-  <si>
-    <t>0:00:01.225507</t>
-  </si>
-  <si>
-    <t>[[479, 367, datetime.timedelta(microseconds=116545), 416.9553640327558], [427, 362, datetime.timedelta(microseconds=233742), 105.12474828050938, -1334.0803781615905], [387, 367, datetime.timedelta(microseconds=347788), 54.51952285715116, -145.50595599433626], [383, 360, datetime.timedelta(microseconds=460534), 8.234456442061992, -100.50303867920537], [379, 371, datetime.timedelta(microseconds=568476), 9.684743123859638, 2.551183659112515], [381, 367, datetime.timedelta(microseconds=684748), 3.072021014299863, -9.657161626700297], [381, 373, datetime.timedelta(microseconds=794539), 3.5520247869798998, 0.6041286490405591], [379, 369, datetime.timedelta(microseconds=910617), 2.3100384085733103, -1.3638954449637877], [381, 365, datetime.timedelta(seconds=1, microseconds=17284), 121.70563790209458, 6907.8685196436745], [381, 371, datetime.timedelta(seconds=1, microseconds=116432), 24.23923167361398, -837.1101263267882]]</t>
-  </si>
-  <si>
-    <t>2022-07-18 14:08:43.849793</t>
-  </si>
-  <si>
-    <t>87.03885648216496</t>
+    <t>(585, 331)</t>
+  </si>
+  <si>
+    <t>(450, 321)</t>
+  </si>
+  <si>
+    <t>135.36986370680884</t>
+  </si>
+  <si>
+    <t>0:00:00.591743</t>
+  </si>
+  <si>
+    <t>[[553, 327, datetime.timedelta(microseconds=94817), 653.527785899376], [516, 325, datetime.timedelta(microseconds=202944), 84.83404513007834, -2802.22002507735], [481, 317, datetime.timedelta(microseconds=317487), 52.54260911975261, -101.7094747511732], [460, 319, datetime.timedelta(microseconds=413743), 23.689749565895667, -69.73618781189518], [450, 323, datetime.timedelta(microseconds=503781), 9.933409370623474, -27.306190974396007]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 16:31:25.567586</t>
+  </si>
+  <si>
+    <t>62.89746106377338</t>
   </si>
   <si>
     <t>hit</t>
@@ -73,79 +73,82 @@
     <t>(416.0, 360.0)</t>
   </si>
   <si>
-    <t>38.600518131237564</t>
-  </si>
-  <si>
-    <t>(576, 358)</t>
-  </si>
-  <si>
-    <t>(416, 369)</t>
-  </si>
-  <si>
-    <t>160.37767924496225</t>
-  </si>
-  <si>
-    <t>0:00:00.466837</t>
-  </si>
-  <si>
-    <t>[[516, 354, datetime.timedelta(microseconds=119004), 273.7557543048282], [458, 367, datetime.timedelta(microseconds=231039), 121.01145404937245, -661.1191195229193], [418, 367, datetime.timedelta(microseconds=344831), 54.5624227949773, -192.70028290494517]]</t>
-  </si>
-  <si>
-    <t>2022-07-18 14:08:51.289994</t>
-  </si>
-  <si>
-    <t>75.43690838559337</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>(593, 377)</t>
-  </si>
-  <si>
-    <t>(454, 371)</t>
-  </si>
-  <si>
-    <t>139.12943613772032</t>
-  </si>
-  <si>
-    <t>0:00:00.562122</t>
-  </si>
-  <si>
-    <t>[[555, 375, datetime.timedelta(microseconds=122082), 104.02843990105013], [485, 371, datetime.timedelta(microseconds=232791), 141.6705917678617, 161.69934347466858], [458, 373, datetime.timedelta(microseconds=343206), 37.105396134542076, -304.671817023361], [454, 373, datetime.timedelta(microseconds=452708), 4.156059715051383, -72.78275714034365]]</t>
-  </si>
-  <si>
-    <t>2022-07-18 14:08:57.435283</t>
-  </si>
-  <si>
-    <t>65.44236440552031</t>
-  </si>
-  <si>
-    <t>39.56008088970496</t>
-  </si>
-  <si>
-    <t>(582, 375)</t>
-  </si>
-  <si>
-    <t>(437, 369)</t>
-  </si>
-  <si>
-    <t>145.1240848377691</t>
-  </si>
-  <si>
-    <t>0:00:00.539133</t>
-  </si>
-  <si>
-    <t>[[512, 369, datetime.timedelta(microseconds=95883), 344.6560595914215], [468, 367, datetime.timedelta(microseconds=205065), 101.02975025206085, -1188.0443241867733], [441, 373, datetime.timedelta(microseconds=321080), 40.518878855951336, -188.46041919804884], [437, 367, datetime.timedelta(microseconds=424116), 7.997550145853295, -76.68026839378388]]</t>
-  </si>
-  <si>
-    <t>2022-07-18 14:09:03.708945</t>
-  </si>
-  <si>
-    <t>68.2620695348025</t>
-  </si>
-  <si>
-    <t>22.847319317591726</t>
+    <t>51.73973328110612</t>
+  </si>
+  <si>
+    <t>(672, 350)</t>
+  </si>
+  <si>
+    <t>(823, 389)</t>
+  </si>
+  <si>
+    <t>155.95512174981621</t>
+  </si>
+  <si>
+    <t>0:00:00.620233</t>
+  </si>
+  <si>
+    <t>[[700, 356, datetime.timedelta(microseconds=96082), 79.75419590077422], [739, 364, datetime.timedelta(microseconds=188565), 98.0990205156307, 97.28647742081765], [764, 364, datetime.timedelta(microseconds=305908), 37.97172240849074, -196.55353278482406], [799, 379, datetime.timedelta(microseconds=418501), 42.27646093764834, 10.286088991800728], [823, 391, datetime.timedelta(microseconds=511787), 24.36060789087095, -35.00646371786972]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 16:31:31.739858</t>
+  </si>
+  <si>
+    <t>72.46207486180485</t>
+  </si>
+  <si>
+    <t>(864.0, 360.0)</t>
+  </si>
+  <si>
+    <t>50.21951811795888</t>
+  </si>
+  <si>
+    <t>(723, 350)</t>
+  </si>
+  <si>
+    <t>(827, 385)</t>
+  </si>
+  <si>
+    <t>109.73149046650191</t>
+  </si>
+  <si>
+    <t>0:00:00.484416</t>
+  </si>
+  <si>
+    <t>[[778, 362, datetime.timedelta(microseconds=95326), 460.75635450464534], [825, 364, datetime.timedelta(microseconds=196310), 111.34209974754187, -1779.9106248133235], [823, 393, datetime.timedelta(microseconds=291252), 46.373573285444444, -223.0663702295518], [827, 385, datetime.timedelta(microseconds=386315), 10.75757903148568, -92.19417898336529]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 16:31:38.012506</t>
+  </si>
+  <si>
+    <t>50.98499739967954</t>
+  </si>
+  <si>
+    <t>44.654227123532216</t>
+  </si>
+  <si>
+    <t>(684, 352)</t>
+  </si>
+  <si>
+    <t>(844, 397)</t>
+  </si>
+  <si>
+    <t>166.20770138594662</t>
+  </si>
+  <si>
+    <t>0:00:00.606460</t>
+  </si>
+  <si>
+    <t>[[715, 366, datetime.timedelta(microseconds=113997), 138.6386690320643], [751, 352, datetime.timedelta(microseconds=207464), 86.50730606838702, -251.27907956887603], [784, 395, datetime.timedelta(microseconds=304395), 82.73694952238448, -12.386394474293422], [817, 397, datetime.timedelta(microseconds=403527), 38.06699592250878, -110.69879735402017], [842, 397, datetime.timedelta(microseconds=505468), 22.980393731228453, -29.846799780164773]]</t>
+  </si>
+  <si>
+    <t>2022-07-18 16:31:44.202323</t>
+  </si>
+  <si>
+    <t>77.22577344883618</t>
+  </si>
+  <si>
+    <t>42.05948168962618</t>
   </si>
   <si>
     <t>Subject Code:</t>
@@ -579,82 +582,82 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="133">
   <si>
     <t>Start</t>
   </si>
@@ -49,25 +49,25 @@
     <t>0</t>
   </si>
   <si>
-    <t>(701, 339)</t>
-  </si>
-  <si>
-    <t>(1014, 380)</t>
-  </si>
-  <si>
-    <t>315.67388235329196</t>
-  </si>
-  <si>
-    <t>0:00:00.565497</t>
-  </si>
-  <si>
-    <t>miss</t>
-  </si>
-  <si>
-    <t>(958.0, 360.0)</t>
-  </si>
-  <si>
-    <t>59.464274989274024</t>
+    <t>(711, 371)</t>
+  </si>
+  <si>
+    <t>(884, 390)</t>
+  </si>
+  <si>
+    <t>174.04022523543227</t>
+  </si>
+  <si>
+    <t>0:00:00.794841</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>(852.0, 360.0)</t>
+  </si>
+  <si>
+    <t>43.86342439892262</t>
   </si>
   <si>
     <t>Trial</t>
@@ -85,175 +85,334 @@
     <t>Accel</t>
   </si>
   <si>
-    <t>(824, 349)</t>
-  </si>
-  <si>
-    <t>123.40583454602137</t>
-  </si>
-  <si>
-    <t>2022-07-20 15:34:02.090109</t>
-  </si>
-  <si>
-    <t>997.3063010714122</t>
-  </si>
-  <si>
-    <t>(941, 363)</t>
-  </si>
-  <si>
-    <t>117.83462988442746</t>
-  </si>
-  <si>
-    <t>2022-07-20 15:34:02.184835</t>
-  </si>
-  <si>
-    <t>270.91549345950875</t>
-  </si>
-  <si>
-    <t>-3813.5155115651337</t>
-  </si>
-  <si>
-    <t>(997, 381)</t>
-  </si>
-  <si>
-    <t>58.821764679410975</t>
-  </si>
-  <si>
-    <t>2022-07-20 15:34:02.278606</t>
-  </si>
-  <si>
-    <t>90.62433379239978</t>
-  </si>
-  <si>
-    <t>-634.2719223888527</t>
-  </si>
-  <si>
-    <t>(1010, 380)</t>
-  </si>
-  <si>
-    <t>13.038404810405298</t>
-  </si>
-  <si>
-    <t>2022-07-20 15:34:02.372347</t>
-  </si>
-  <si>
-    <t>15.106013668683746</t>
-  </si>
-  <si>
-    <t>-199.78920109980697</t>
-  </si>
-  <si>
-    <t>(1017, 381)</t>
+    <t>(780, 382)</t>
+  </si>
+  <si>
+    <t>69.87131027825369</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:24.736896</t>
+  </si>
+  <si>
+    <t>125.9992018881441</t>
+  </si>
+  <si>
+    <t>(823, 383)</t>
+  </si>
+  <si>
+    <t>43.01162633521314</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:24.887919</t>
+  </si>
+  <si>
+    <t>54.23092420486768</t>
+  </si>
+  <si>
+    <t>-235.12774810971504</t>
+  </si>
+  <si>
+    <t>(857, 385)</t>
+  </si>
+  <si>
+    <t>34.058772731852805</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:25.050600</t>
+  </si>
+  <si>
+    <t>28.01267563484682</t>
+  </si>
+  <si>
+    <t>-56.03243466724696</t>
+  </si>
+  <si>
+    <t>27.459060435491963</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:25.212580</t>
+  </si>
+  <si>
+    <t>16.776809046569984</t>
+  </si>
+  <si>
+    <t>-17.837766773156087</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>(682, 362)</t>
+  </si>
+  <si>
+    <t>(846, 383)</t>
+  </si>
+  <si>
+    <t>165.33904560024533</t>
+  </si>
+  <si>
+    <t>0:00:00.743818</t>
+  </si>
+  <si>
+    <t>23.769728648009426</t>
+  </si>
+  <si>
+    <t>(753, 372)</t>
+  </si>
+  <si>
+    <t>71.7007670809734</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:31.381483</t>
+  </si>
+  <si>
+    <t>60.72981985429701</t>
+  </si>
+  <si>
+    <t>(804, 380)</t>
+  </si>
+  <si>
+    <t>51.62363799656123</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:31.530976</t>
+  </si>
+  <si>
+    <t>67.01051964835155</t>
+  </si>
+  <si>
+    <t>21.18422758383208</t>
+  </si>
+  <si>
+    <t>(839, 380)</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:31.678681</t>
+  </si>
+  <si>
+    <t>30.32452012043849</t>
+  </si>
+  <si>
+    <t>-82.59171184959658</t>
+  </si>
+  <si>
+    <t>(844, 385)</t>
   </si>
   <si>
     <t>7.0710678118654755</t>
   </si>
   <si>
-    <t>2022-07-20 15:34:02.467101</t>
-  </si>
-  <si>
-    <t>6.550352921978881</t>
-  </si>
-  <si>
-    <t>-18.09787273176363</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>(606, 354)</t>
-  </si>
-  <si>
-    <t>(361, 383)</t>
-  </si>
-  <si>
-    <t>246.71035649116962</t>
-  </si>
-  <si>
-    <t>0:00:00.622554</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>(322.0, 360.0)</t>
-  </si>
-  <si>
-    <t>45.27692569068708</t>
-  </si>
-  <si>
-    <t>(546, 356)</t>
-  </si>
-  <si>
-    <t>60.03332407921454</t>
-  </si>
-  <si>
-    <t>2022-07-20 15:34:10.228308</t>
-  </si>
-  <si>
-    <t>263.52912119171566</t>
-  </si>
-  <si>
-    <t>(467, 367)</t>
-  </si>
-  <si>
-    <t>79.76214641043707</t>
-  </si>
-  <si>
-    <t>2022-07-20 15:34:10.327013</t>
-  </si>
-  <si>
-    <t>175.99975457044945</t>
-  </si>
-  <si>
-    <t>-441.02508525941823</t>
-  </si>
-  <si>
-    <t>(424, 372)</t>
-  </si>
-  <si>
-    <t>43.289721643826724</t>
-  </si>
-  <si>
-    <t>2022-07-20 15:34:10.425748</t>
-  </si>
-  <si>
-    <t>63.78775645586251</t>
-  </si>
-  <si>
-    <t>-377.5601124974746</t>
-  </si>
-  <si>
-    <t>(385, 372)</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>2022-07-20 15:34:10.542470</t>
-  </si>
-  <si>
-    <t>41.26184778601821</t>
-  </si>
-  <si>
-    <t>-54.420266158952224</t>
-  </si>
-  <si>
-    <t>(361, 381)</t>
-  </si>
-  <si>
-    <t>25.63201123595259</t>
-  </si>
-  <si>
-    <t>2022-07-20 15:34:10.647027</t>
-  </si>
-  <si>
-    <t>21.64984164625659</t>
-  </si>
-  <si>
-    <t>-37.825818716487014</t>
+    <t>2022-07-21 16:50:31.828332</t>
+  </si>
+  <si>
+    <t>4.5825610667883385</t>
+  </si>
+  <si>
+    <t>-43.34859970370633</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>(594, 353)</t>
+  </si>
+  <si>
+    <t>(393, 348)</t>
+  </si>
+  <si>
+    <t>201.06217943710845</t>
+  </si>
+  <si>
+    <t>0:00:01.133669</t>
+  </si>
+  <si>
+    <t>(428.0, 360.0)</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>(571, 353)</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:38.112468</t>
+  </si>
+  <si>
+    <t>393.6798268741994</t>
+  </si>
+  <si>
+    <t>(523, 351)</t>
+  </si>
+  <si>
+    <t>48.041648597857254</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:38.256291</t>
+  </si>
+  <si>
+    <t>61.4781542427726</t>
+  </si>
+  <si>
+    <t>-1104.6252128318993</t>
+  </si>
+  <si>
+    <t>(481, 346)</t>
+  </si>
+  <si>
+    <t>42.2965719651132</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:38.400196</t>
+  </si>
+  <si>
+    <t>36.608713605684386</t>
+  </si>
+  <si>
+    <t>-55.93137993506734</t>
+  </si>
+  <si>
+    <t>(457, 346)</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:38.548596</t>
+  </si>
+  <si>
+    <t>15.574552285274294</t>
+  </si>
+  <si>
+    <t>-35.46824899486056</t>
+  </si>
+  <si>
+    <t>(427, 348)</t>
+  </si>
+  <si>
+    <t>30.066592756745816</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:38.680253</t>
+  </si>
+  <si>
+    <t>15.966742974655764</t>
+  </si>
+  <si>
+    <t>0.5411773569184867</t>
+  </si>
+  <si>
+    <t>(404, 348)</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:38.812692</t>
+  </si>
+  <si>
+    <t>10.326826195449453</t>
+  </si>
+  <si>
+    <t>-6.579940195401805</t>
+  </si>
+  <si>
+    <t>(396, 348)</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:38.952261</t>
+  </si>
+  <si>
+    <t>3.0889598234866202</t>
+  </si>
+  <si>
+    <t>-7.261779411565116</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>(730, 375)</t>
+  </si>
+  <si>
+    <t>(856, 379)</t>
+  </si>
+  <si>
+    <t>126.0634760745554</t>
+  </si>
+  <si>
+    <t>0:00:00.781855</t>
+  </si>
+  <si>
+    <t>19.4164878389476</t>
+  </si>
+  <si>
+    <t>(783, 372)</t>
+  </si>
+  <si>
+    <t>53.08483775994799</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:45.447448</t>
+  </si>
+  <si>
+    <t>125.84154252909637</t>
+  </si>
+  <si>
+    <t>(846, 377)</t>
+  </si>
+  <si>
+    <t>63.198101237299845</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:45.602669</t>
+  </si>
+  <si>
+    <t>76.58807962614269</t>
+  </si>
+  <si>
+    <t>-155.09726482122932</t>
+  </si>
+  <si>
+    <t>(852, 377)</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:45.759960</t>
+  </si>
+  <si>
+    <t>4.862718190548101</t>
+  </si>
+  <si>
+    <t>-151.04655187171392</t>
+  </si>
+  <si>
+    <t>(857, 380)</t>
+  </si>
+  <si>
+    <t>5.830951894845301</t>
+  </si>
+  <si>
+    <t>2022-07-21 16:50:45.913997</t>
+  </si>
+  <si>
+    <t>3.5682270306007795</t>
+  </si>
+  <si>
+    <t>-2.058364713786481</t>
   </si>
   <si>
     <t>Subject Code:</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -585,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -746,211 +905,502 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F14" t="s">
         <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="s">
         <v>65</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
         <v>66</v>
       </c>
-      <c r="F18" t="s">
+      <c r="B20" t="s">
         <v>67</v>
       </c>
-      <c r="G18" t="s">
+      <c r="C20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
         <v>69</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E20" t="s">
         <v>70</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
         <v>71</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H20" t="s">
         <v>72</v>
       </c>
-      <c r="G19" t="s">
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D23" t="s">
         <v>74</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E23" t="s">
         <v>75</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F23" t="s">
         <v>76</v>
       </c>
-      <c r="F20" t="s">
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
         <v>77</v>
       </c>
-      <c r="G20" t="s">
+      <c r="D24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="E24" t="s">
         <v>79</v>
       </c>
-      <c r="B22" t="s">
-        <v>47</v>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="191">
   <si>
     <t>Start</t>
   </si>
@@ -52,250 +52,538 @@
     <t>0</t>
   </si>
   <si>
-    <t>(597, 354)</t>
-  </si>
-  <si>
-    <t>(381, 354)</t>
-  </si>
-  <si>
-    <t>216.0</t>
-  </si>
-  <si>
-    <t>0:00:00.993391</t>
+    <t>(687, 343)</t>
+  </si>
+  <si>
+    <t>(877, 290)</t>
+  </si>
+  <si>
+    <t>197.25364381932212</t>
+  </si>
+  <si>
+    <t>0:00:01.815925</t>
   </si>
   <si>
     <t>miss</t>
   </si>
   <si>
-    <t>(322.0, 360.0)</t>
-  </si>
-  <si>
-    <t>59.304300012730955</t>
+    <t>(1064.0, 360.0)</t>
+  </si>
+  <si>
+    <t>199.6722314193939</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Dist</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Vel</t>
+  </si>
+  <si>
+    <t>Accel</t>
+  </si>
+  <si>
+    <t>(777, 332)</t>
+  </si>
+  <si>
+    <t>90.6697303403953</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:19.100652</t>
+  </si>
+  <si>
+    <t>620.4986872821728</t>
+  </si>
+  <si>
+    <t>(822, 319)</t>
+  </si>
+  <si>
+    <t>46.84015371452148</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:19.243652</t>
+  </si>
+  <si>
+    <t>67.44432383993147</t>
+  </si>
+  <si>
+    <t>-2048.311562534921</t>
+  </si>
+  <si>
+    <t>(893, 306)</t>
+  </si>
+  <si>
+    <t>72.18032973047436</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:19.374676</t>
+  </si>
+  <si>
+    <t>69.97485098998827</t>
+  </si>
+  <si>
+    <t>6.3100851810138385</t>
+  </si>
+  <si>
+    <t>(876, 288)</t>
+  </si>
+  <si>
+    <t>24.758836806279895</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:19.548535</t>
+  </si>
+  <si>
+    <t>16.74348640330127</t>
+  </si>
+  <si>
+    <t>-92.59432200130635</t>
+  </si>
+  <si>
+    <t>(897, 295)</t>
+  </si>
+  <si>
+    <t>22.135943621178654</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:19.683279</t>
+  </si>
+  <si>
+    <t>12.127289602459468</t>
+  </si>
+  <si>
+    <t>-6.505057270306019</t>
+  </si>
+  <si>
+    <t>(895, 288)</t>
+  </si>
+  <si>
+    <t>7.280109889280518</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:19.817241</t>
+  </si>
+  <si>
+    <t>3.3550836498917884</t>
+  </si>
+  <si>
+    <t>-10.39861112403322</t>
+  </si>
+  <si>
+    <t>(895, 293)</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:19.946243</t>
+  </si>
+  <si>
+    <t>1.998648514923368</t>
+  </si>
+  <si>
+    <t>-1.3946542397546573</t>
+  </si>
+  <si>
+    <t>(915, 293)</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:20.089243</t>
+  </si>
+  <si>
+    <t>67.26452648951202</t>
+  </si>
+  <si>
+    <t>564.6032559482046</t>
+  </si>
+  <si>
+    <t>(906, 301)</t>
+  </si>
+  <si>
+    <t>12.041594578792296</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:20.210245</t>
+  </si>
+  <si>
+    <t>19.78662996323163</t>
+  </si>
+  <si>
+    <t>-200.66905268125845</t>
+  </si>
+  <si>
+    <t>(880, 293)</t>
+  </si>
+  <si>
+    <t>27.202941017470888</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:20.357241</t>
+  </si>
+  <si>
+    <t>27.57039284534894</t>
+  </si>
+  <si>
+    <t>20.29167005249642</t>
+  </si>
+  <si>
+    <t>(915, 292)</t>
+  </si>
+  <si>
+    <t>35.014282800023196</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:20.481241</t>
+  </si>
+  <si>
+    <t>26.818078346097504</t>
+  </si>
+  <si>
+    <t>-1.4821185814872453</t>
+  </si>
+  <si>
+    <t>(876, 290)</t>
+  </si>
+  <si>
+    <t>39.05124837953327</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:20.632285</t>
+  </si>
+  <si>
+    <t>23.050854965640248</t>
+  </si>
+  <si>
+    <t>-5.719717630105243</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>(747, 339)</t>
+  </si>
+  <si>
+    <t>(919, 296)</t>
+  </si>
+  <si>
+    <t>177.2935419015594</t>
+  </si>
+  <si>
+    <t>0:00:00.568780</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>158.4960567332828</t>
+  </si>
+  <si>
+    <t>(846, 335)</t>
+  </si>
+  <si>
+    <t>99.08077512817509</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:24.830675</t>
+  </si>
+  <si>
+    <t>674.1859806478611</t>
+  </si>
+  <si>
+    <t>(893, 321)</t>
+  </si>
+  <si>
+    <t>49.040799340956916</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:24.985842</t>
+  </si>
+  <si>
+    <t>61.25578083404503</t>
+  </si>
+  <si>
+    <t>-1969.253654020293</t>
+  </si>
+  <si>
+    <t>(918, 298)</t>
+  </si>
+  <si>
+    <t>33.97057550292606</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:25.122034</t>
+  </si>
+  <si>
+    <t>29.51651347677767</t>
+  </si>
+  <si>
+    <t>-70.93493091231345</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>(577, 365)</t>
+  </si>
+  <si>
+    <t>(317, 407)</t>
+  </si>
+  <si>
+    <t>263.3704615176121</t>
+  </si>
+  <si>
+    <t>0:00:02.234651</t>
+  </si>
+  <si>
+    <t>(216.0, 360.0)</t>
+  </si>
+  <si>
+    <t>111.40017953306898</t>
   </si>
   <si>
     <t>left</t>
   </si>
   <si>
-    <t>Trial</t>
-  </si>
-  <si>
-    <t>Dist</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Vel</t>
-  </si>
-  <si>
-    <t>Accel</t>
-  </si>
-  <si>
-    <t>(516, 361)</t>
-  </si>
-  <si>
-    <t>81.30190649671138</t>
-  </si>
-  <si>
-    <t>2022-07-27 14:23:17.844916</t>
-  </si>
-  <si>
-    <t>257.55162130089263</t>
-  </si>
-  <si>
-    <t>(471, 354)</t>
-  </si>
-  <si>
-    <t>45.541190146942796</t>
-  </si>
-  <si>
-    <t>2022-07-27 14:23:17.954629</t>
-  </si>
-  <si>
-    <t>87.14009821085915</t>
-  </si>
-  <si>
-    <t>-787.3638635976653</t>
-  </si>
-  <si>
-    <t>(430, 350)</t>
-  </si>
-  <si>
-    <t>41.19465984809196</t>
-  </si>
-  <si>
-    <t>2022-07-27 14:23:18.065360</t>
-  </si>
-  <si>
-    <t>52.14498659269356</t>
-  </si>
-  <si>
-    <t>-106.96504388675278</t>
-  </si>
-  <si>
-    <t>(428, 342)</t>
-  </si>
-  <si>
-    <t>8.246211251235321</t>
-  </si>
-  <si>
-    <t>2022-07-27 14:23:18.179472</t>
-  </si>
-  <si>
-    <t>7.738936744312683</t>
-  </si>
-  <si>
-    <t>-100.63101063366437</t>
-  </si>
-  <si>
-    <t>(423, 347)</t>
-  </si>
-  <si>
-    <t>7.0710678118654755</t>
-  </si>
-  <si>
-    <t>2022-07-27 14:23:18.289687</t>
-  </si>
-  <si>
-    <t>5.30986795306752</t>
-  </si>
-  <si>
-    <t>-4.404548381107151</t>
-  </si>
-  <si>
-    <t>(383, 350)</t>
-  </si>
-  <si>
-    <t>40.11234224026316</t>
-  </si>
-  <si>
-    <t>2022-07-27 14:23:18.399130</t>
-  </si>
-  <si>
-    <t>25.133737607853405</t>
-  </si>
-  <si>
-    <t>29.993720484626127</t>
-  </si>
-  <si>
-    <t>(366, 357)</t>
-  </si>
-  <si>
-    <t>18.38477631085024</t>
-  </si>
-  <si>
-    <t>2022-07-27 14:23:18.505196</t>
-  </si>
-  <si>
-    <t>9.92659114340732</t>
-  </si>
-  <si>
-    <t>-19.826788089238704</t>
-  </si>
-  <si>
-    <t>(378, 354)</t>
-  </si>
-  <si>
-    <t>12.36931687685298</t>
-  </si>
-  <si>
-    <t>2022-07-27 14:23:18.617889</t>
-  </si>
-  <si>
-    <t>5.823066201703305</t>
-  </si>
-  <si>
-    <t>-4.664723877198086</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>(582, 354)</t>
-  </si>
-  <si>
-    <t>(414, 357)</t>
-  </si>
-  <si>
-    <t>168.02678357928534</t>
-  </si>
-  <si>
-    <t>0:00:00.621690</t>
-  </si>
-  <si>
-    <t>92.04890004774636</t>
-  </si>
-  <si>
-    <t>(539, 354)</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>2022-07-27 14:23:26.503187</t>
-  </si>
-  <si>
-    <t>189.9802493828512</t>
-  </si>
-  <si>
-    <t>(480, 357)</t>
-  </si>
-  <si>
-    <t>59.076221950967714</t>
-  </si>
-  <si>
-    <t>2022-07-27 14:23:26.600927</t>
-  </si>
-  <si>
-    <t>127.7732824397472</t>
-  </si>
-  <si>
-    <t>-324.8846681173633</t>
-  </si>
-  <si>
-    <t>(463, 356)</t>
-  </si>
-  <si>
-    <t>17.029386365926403</t>
-  </si>
-  <si>
-    <t>2022-07-27 14:23:26.709109</t>
-  </si>
-  <si>
-    <t>23.53494400179583</t>
-  </si>
-  <si>
-    <t>-347.86000760188807</t>
-  </si>
-  <si>
-    <t>(435, 356)</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>2022-07-27 14:23:26.813862</t>
-  </si>
-  <si>
-    <t>28.67308139510507</t>
-  </si>
-  <si>
-    <t>12.705299321501846</t>
-  </si>
-  <si>
-    <t>(413, 357)</t>
-  </si>
-  <si>
-    <t>22.02271554554524</t>
-  </si>
-  <si>
-    <t>2022-07-27 14:23:26.920120</t>
-  </si>
-  <si>
-    <t>17.85953814123561</t>
-  </si>
-  <si>
-    <t>-21.17533197537624</t>
+    <t>(460, 373)</t>
+  </si>
+  <si>
+    <t>117.27318534089538</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:28.943801</t>
+  </si>
+  <si>
+    <t>312.6680505569536</t>
+  </si>
+  <si>
+    <t>(340, 395)</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:29.074759</t>
+  </si>
+  <si>
+    <t>171.367607297203</t>
+  </si>
+  <si>
+    <t>-510.52090043519</t>
+  </si>
+  <si>
+    <t>(382, 408)</t>
+  </si>
+  <si>
+    <t>43.965895873961216</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:29.205143</t>
+  </si>
+  <si>
+    <t>41.980601285434496</t>
+  </si>
+  <si>
+    <t>-317.77848568936736</t>
+  </si>
+  <si>
+    <t>(378, 407)</t>
+  </si>
+  <si>
+    <t>4.123105625617661</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:29.336138</t>
+  </si>
+  <si>
+    <t>2.978620498934928</t>
+  </si>
+  <si>
+    <t>-72.47337349485943</t>
+  </si>
+  <si>
+    <t>(334, 407)</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:29.458137</t>
+  </si>
+  <si>
+    <t>25.912281886798695</t>
+  </si>
+  <si>
+    <t>34.73981320729794</t>
+  </si>
+  <si>
+    <t>(374, 407)</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:29.594849</t>
+  </si>
+  <si>
+    <t>19.515201919722188</t>
+  </si>
+  <si>
+    <t>-8.027788786681477</t>
+  </si>
+  <si>
+    <t>(392, 402)</t>
+  </si>
+  <si>
+    <t>18.681541692269406</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:29.748136</t>
+  </si>
+  <si>
+    <t>7.643946036969649</t>
+  </si>
+  <si>
+    <t>-12.494033475365613</t>
+  </si>
+  <si>
+    <t>(324, 405)</t>
+  </si>
+  <si>
+    <t>68.06614430096654</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:29.869850</t>
+  </si>
+  <si>
+    <t>368.20907745078347</t>
+  </si>
+  <si>
+    <t>5017.046966853312</t>
+  </si>
+  <si>
+    <t>(343, 407)</t>
+  </si>
+  <si>
+    <t>19.1049731745428</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:30.005532</t>
+  </si>
+  <si>
+    <t>35.78677761198829</t>
+  </si>
+  <si>
+    <t>-1601.6492403700083</t>
+  </si>
+  <si>
+    <t>(339, 405)</t>
+  </si>
+  <si>
+    <t>4.47213595499958</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:30.135409</t>
+  </si>
+  <si>
+    <t>5.152690619325007</t>
+  </si>
+  <si>
+    <t>-90.7873021206462</t>
+  </si>
+  <si>
+    <t>(329, 403)</t>
+  </si>
+  <si>
+    <t>10.198039027185569</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:30.250722</t>
+  </si>
+  <si>
+    <t>8.75722893023635</t>
+  </si>
+  <si>
+    <t>7.96160779014742</t>
+  </si>
+  <si>
+    <t>(373, 405)</t>
+  </si>
+  <si>
+    <t>44.04543109109048</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:30.390720</t>
+  </si>
+  <si>
+    <t>28.889298382417554</t>
+  </si>
+  <si>
+    <t>33.96453315323331</t>
+  </si>
+  <si>
+    <t>(293, 402)</t>
+  </si>
+  <si>
+    <t>80.05623023850174</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:30.517200</t>
+  </si>
+  <si>
+    <t>43.274642397699914</t>
+  </si>
+  <si>
+    <t>20.001368173881023</t>
+  </si>
+  <si>
+    <t>(316, 407)</t>
+  </si>
+  <si>
+    <t>23.53720459187964</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:30.638335</t>
+  </si>
+  <si>
+    <t>10.889101037285352</t>
+  </si>
+  <si>
+    <t>-38.53802076081666</t>
+  </si>
+  <si>
+    <t>(319, 402)</t>
+  </si>
+  <si>
+    <t>5.830951894845301</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:30.769834</t>
+  </si>
+  <si>
+    <t>2.33258901344437</t>
+  </si>
+  <si>
+    <t>-8.804336487285083</t>
+  </si>
+  <si>
+    <t>2022-07-27 14:38:30.891814</t>
+  </si>
+  <si>
+    <t>24.15946902862497</t>
+  </si>
+  <si>
+    <t>232.61659151654658</t>
   </si>
   <si>
     <t>Subject Code:</t>
@@ -630,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,176 +1192,639 @@
         <v>63</v>
       </c>
     </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="H16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E22" t="s">
         <v>22</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F22" t="s">
         <v>23</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
         <v>84</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B23" t="s">
         <v>85</v>
       </c>
-      <c r="E22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
         <v>84</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" t="s">
         <v>89</v>
       </c>
-      <c r="D23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
+      <c r="G29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" t="s">
+        <v>179</v>
+      </c>
+      <c r="F45" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" t="s">
+        <v>185</v>
+      </c>
+      <c r="G46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" t="s">
+        <v>188</v>
+      </c>
+      <c r="G47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
